--- a/static/files/fixed_assets.xlsx
+++ b/static/files/fixed_assets.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="382">
   <si>
     <t>编号</t>
   </si>
@@ -91,10 +91,10 @@
     <t>184.70</t>
   </si>
   <si>
-    <t>1477.60</t>
-  </si>
-  <si>
-    <t>5521.40</t>
+    <t>3324.60</t>
+  </si>
+  <si>
+    <t>3674.40</t>
   </si>
   <si>
     <t>HUBFAA002</t>
@@ -109,7 +109,7 @@
     <t>HUBFAA003</t>
   </si>
   <si>
-    <t>许建勇</t>
+    <t>D09</t>
   </si>
   <si>
     <t>HUBFAA004</t>
@@ -139,7 +139,7 @@
     <t>HUBFAA008</t>
   </si>
   <si>
-    <t>钱阳</t>
+    <t>D05，财务软件</t>
   </si>
   <si>
     <t>HUBFAA009</t>
@@ -163,10 +163,10 @@
     <t>110.81</t>
   </si>
   <si>
-    <t>886.48</t>
-  </si>
-  <si>
-    <t>3312.52</t>
+    <t>1994.58</t>
+  </si>
+  <si>
+    <t>2204.42</t>
   </si>
   <si>
     <t>HUBFAA010</t>
@@ -208,10 +208,10 @@
     <t>289.96</t>
   </si>
   <si>
-    <t>2319.68</t>
-  </si>
-  <si>
-    <t>8668.32</t>
+    <t>5219.28</t>
+  </si>
+  <si>
+    <t>5768.72</t>
   </si>
   <si>
     <t>HUBFAA013</t>
@@ -220,748 +220,750 @@
     <t>21.5 英寸 iMac 苹果一体机 2.7GHZ</t>
   </si>
   <si>
+    <t>9688.00</t>
+  </si>
+  <si>
+    <t>484.40</t>
+  </si>
+  <si>
+    <t>255.66</t>
+  </si>
+  <si>
+    <t>4601.88</t>
+  </si>
+  <si>
+    <t>5086.12</t>
+  </si>
+  <si>
+    <t>HUBFAA014</t>
+  </si>
+  <si>
+    <t>HUBFAA015</t>
+  </si>
+  <si>
+    <t>成凯娟</t>
+  </si>
+  <si>
+    <t>HUBFAA016</t>
+  </si>
+  <si>
+    <t>卜晓斌</t>
+  </si>
+  <si>
+    <t>HUBFAA017</t>
+  </si>
+  <si>
+    <t>4299.00</t>
+  </si>
+  <si>
+    <t>214.95</t>
+  </si>
+  <si>
+    <t>113.45</t>
+  </si>
+  <si>
+    <t>2042.10</t>
+  </si>
+  <si>
+    <t>2256.90</t>
+  </si>
+  <si>
+    <t>大会议室</t>
+  </si>
+  <si>
+    <t>HUBFAA018</t>
+  </si>
+  <si>
+    <t>HUBFAA019</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>HUBFAA020</t>
+  </si>
+  <si>
+    <t>27 英寸配备 Retina 5K 显示屏的 iMac</t>
+  </si>
+  <si>
+    <t>程俊</t>
+  </si>
+  <si>
+    <t>17612.00</t>
+  </si>
+  <si>
+    <t>880.60</t>
+  </si>
+  <si>
+    <t>464.76</t>
+  </si>
+  <si>
+    <t>8365.68</t>
+  </si>
+  <si>
+    <t>9246.32</t>
+  </si>
+  <si>
+    <t>HUBFAA021</t>
+  </si>
+  <si>
+    <t>显示器</t>
+  </si>
+  <si>
+    <t>戴尔（DELL）U2414H 液晶显示器</t>
+  </si>
+  <si>
+    <t>陆小峰</t>
+  </si>
+  <si>
+    <t>1899.00</t>
+  </si>
+  <si>
+    <t>94.95</t>
+  </si>
+  <si>
+    <t>50.11</t>
+  </si>
+  <si>
+    <t>901.98</t>
+  </si>
+  <si>
+    <t>997.02</t>
+  </si>
+  <si>
+    <t>HUBFAA022</t>
+  </si>
+  <si>
+    <t>项嘉</t>
+  </si>
+  <si>
+    <t>HUBFAA023</t>
+  </si>
+  <si>
+    <t>徐建锋</t>
+  </si>
+  <si>
+    <t>HUBFAA024</t>
+  </si>
+  <si>
+    <t>HUBFAA025</t>
+  </si>
+  <si>
+    <t>ipad</t>
+  </si>
+  <si>
+    <t>iPad平板电脑 16G WiFi版金色</t>
+  </si>
+  <si>
+    <t>朱维刚</t>
+  </si>
+  <si>
+    <t>3288.00</t>
+  </si>
+  <si>
+    <t>2810.26</t>
+  </si>
+  <si>
+    <t>140.51</t>
+  </si>
+  <si>
+    <t>74.16</t>
+  </si>
+  <si>
+    <t>1334.88</t>
+  </si>
+  <si>
+    <t>1475.38</t>
+  </si>
+  <si>
+    <t>HUBFAA026</t>
+  </si>
+  <si>
+    <t>iPad平板电脑 16G WiFi版银色</t>
+  </si>
+  <si>
+    <t>3588.00</t>
+  </si>
+  <si>
+    <t>3066.67</t>
+  </si>
+  <si>
+    <t>153.33</t>
+  </si>
+  <si>
+    <t>80.93</t>
+  </si>
+  <si>
+    <t>1456.74</t>
+  </si>
+  <si>
+    <t>1609.93</t>
+  </si>
+  <si>
+    <t>HUBFAA027</t>
+  </si>
+  <si>
+    <t>3066.66</t>
+  </si>
+  <si>
+    <t>1609.92</t>
+  </si>
+  <si>
+    <t>HUBFAA028</t>
+  </si>
+  <si>
+    <t>同方超翔 开票机机箱</t>
+  </si>
+  <si>
+    <t>2015/06/12</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>2991.45</t>
+  </si>
+  <si>
+    <t>149.57</t>
+  </si>
+  <si>
+    <t>78.94</t>
+  </si>
+  <si>
+    <t>1420.92</t>
+  </si>
+  <si>
+    <t>1570.53</t>
+  </si>
+  <si>
+    <t>HUBFAA029</t>
+  </si>
+  <si>
+    <t>打印机</t>
+  </si>
+  <si>
+    <t>爱心诺 SK-860打印机</t>
+  </si>
+  <si>
+    <t>2600.00</t>
+  </si>
+  <si>
+    <t>2222.22</t>
+  </si>
+  <si>
+    <t>111.11</t>
+  </si>
+  <si>
+    <t>58.64</t>
+  </si>
+  <si>
+    <t>1055.52</t>
+  </si>
+  <si>
+    <t>1166.70</t>
+  </si>
+  <si>
+    <t>HUBFAA030</t>
+  </si>
+  <si>
+    <t>惠普（hp）MFP M277dw 彩色打印机</t>
+  </si>
+  <si>
+    <t>4999.00</t>
+  </si>
+  <si>
+    <t>4272.65</t>
+  </si>
+  <si>
+    <t>213.63</t>
+  </si>
+  <si>
+    <t>112.75</t>
+  </si>
+  <si>
+    <t>2029.50</t>
+  </si>
+  <si>
+    <t>2243.15</t>
+  </si>
+  <si>
+    <t>HUBFAA031</t>
+  </si>
+  <si>
+    <t>苏曦</t>
+  </si>
+  <si>
+    <t>16508.00</t>
+  </si>
+  <si>
+    <t>14109.40</t>
+  </si>
+  <si>
+    <t>705.47</t>
+  </si>
+  <si>
+    <t>372.33</t>
+  </si>
+  <si>
+    <t>6701.94</t>
+  </si>
+  <si>
+    <t>7407.46</t>
+  </si>
+  <si>
+    <t>HUBFAA032</t>
+  </si>
+  <si>
+    <t>张晋</t>
+  </si>
+  <si>
+    <t>2015/06/17</t>
+  </si>
+  <si>
+    <t>5982.05</t>
+  </si>
+  <si>
+    <t>299.10</t>
+  </si>
+  <si>
+    <t>157.86</t>
+  </si>
+  <si>
+    <t>2841.48</t>
+  </si>
+  <si>
+    <t>3140.57</t>
+  </si>
+  <si>
+    <t>HUBFAA033</t>
+  </si>
+  <si>
+    <t>徐建峰</t>
+  </si>
+  <si>
+    <t>HUBFAA034</t>
+  </si>
+  <si>
+    <t>顾颖旻玉</t>
+  </si>
+  <si>
+    <t>HUBFAA035</t>
+  </si>
+  <si>
+    <t>尹美力</t>
+  </si>
+  <si>
+    <t>HUBFAA036</t>
+  </si>
+  <si>
+    <t>HUBFAA037</t>
+  </si>
+  <si>
+    <t>郑达凯</t>
+  </si>
+  <si>
+    <t>D18</t>
+  </si>
+  <si>
+    <t>HUBFAA038</t>
+  </si>
+  <si>
+    <t>王凤一</t>
+  </si>
+  <si>
+    <t>D24</t>
+  </si>
+  <si>
+    <t>HUBFAA039</t>
+  </si>
+  <si>
+    <t>江河冰</t>
+  </si>
+  <si>
+    <t>5982.07</t>
+  </si>
+  <si>
+    <t>3140.59</t>
+  </si>
+  <si>
+    <t>HUBFAA040</t>
+  </si>
+  <si>
+    <t>朱震</t>
+  </si>
+  <si>
+    <t>2015/07/13</t>
+  </si>
+  <si>
+    <t>6900.00</t>
+  </si>
+  <si>
+    <t>5897.43</t>
+  </si>
+  <si>
+    <t>294.87</t>
+  </si>
+  <si>
+    <t>155.63</t>
+  </si>
+  <si>
+    <t>2645.71</t>
+  </si>
+  <si>
+    <t>3251.72</t>
+  </si>
+  <si>
+    <t>HUBFAA041</t>
+  </si>
+  <si>
+    <t>袁佳明</t>
+  </si>
+  <si>
+    <t>HUBFAA042</t>
+  </si>
+  <si>
+    <t>王若男</t>
+  </si>
+  <si>
+    <t>HUBFAA043</t>
+  </si>
+  <si>
+    <t>王鹏</t>
+  </si>
+  <si>
+    <t>5897.44</t>
+  </si>
+  <si>
+    <t>3251.73</t>
+  </si>
+  <si>
+    <t>HUBFAA044</t>
+  </si>
+  <si>
+    <t>陈娴静</t>
+  </si>
+  <si>
+    <t>HUBFAA045</t>
+  </si>
+  <si>
+    <t>王园卉</t>
+  </si>
+  <si>
+    <t>HUBFAA046</t>
+  </si>
+  <si>
+    <t>D54</t>
+  </si>
+  <si>
+    <t>HUBFAA047</t>
+  </si>
+  <si>
+    <t>刘盾</t>
+  </si>
+  <si>
+    <t>D19</t>
+  </si>
+  <si>
+    <t>HUBFAA048</t>
+  </si>
+  <si>
+    <t>郭茁</t>
+  </si>
+  <si>
+    <t>HUBFAA049</t>
+  </si>
+  <si>
+    <t>丁正军</t>
+  </si>
+  <si>
+    <t>HUBFAA050</t>
+  </si>
+  <si>
+    <t>1799.00</t>
+  </si>
+  <si>
+    <t>1537.60</t>
+  </si>
+  <si>
+    <t>76.88</t>
+  </si>
+  <si>
+    <t>40.58</t>
+  </si>
+  <si>
+    <t>689.86</t>
+  </si>
+  <si>
+    <t>847.74</t>
+  </si>
+  <si>
+    <t>HUBFAA051</t>
+  </si>
+  <si>
+    <t>HUBFAA052</t>
+  </si>
+  <si>
+    <t>HUBFAA053</t>
+  </si>
+  <si>
+    <t>李璟</t>
+  </si>
+  <si>
+    <t>HUBFAA054</t>
+  </si>
+  <si>
+    <t>HUBFAA055</t>
+  </si>
+  <si>
+    <t>服务器</t>
+  </si>
+  <si>
+    <t>戴尔（DELL）R620 服务器</t>
+  </si>
+  <si>
+    <t>2015/07/21</t>
+  </si>
+  <si>
+    <t>26500.00</t>
+  </si>
+  <si>
+    <t>22649.57</t>
+  </si>
+  <si>
+    <t>1132.48</t>
+  </si>
+  <si>
+    <t>597.70</t>
+  </si>
+  <si>
+    <t>10160.90</t>
+  </si>
+  <si>
+    <t>12488.67</t>
+  </si>
+  <si>
+    <t>HUBFAA056</t>
+  </si>
+  <si>
+    <t>2015/08/04</t>
+  </si>
+  <si>
+    <t>8280.34</t>
+  </si>
+  <si>
+    <t>414.02</t>
+  </si>
+  <si>
+    <t>218.51</t>
+  </si>
+  <si>
+    <t>3496.16</t>
+  </si>
+  <si>
+    <t>4784.18</t>
+  </si>
+  <si>
+    <t>HUBFAA057</t>
+  </si>
+  <si>
+    <t>交换机</t>
+  </si>
+  <si>
+    <t>机房网络产品（交换机&amp;UPS）</t>
+  </si>
+  <si>
+    <t>2015/09/24</t>
+  </si>
+  <si>
+    <t>91740.00</t>
+  </si>
+  <si>
+    <t>78410.24</t>
+  </si>
+  <si>
+    <t>3920.51</t>
+  </si>
+  <si>
+    <t>2069.16</t>
+  </si>
+  <si>
+    <t>31037.40</t>
+  </si>
+  <si>
+    <t>47372.84</t>
+  </si>
+  <si>
+    <t>HUBFAA058</t>
+  </si>
+  <si>
+    <t>电视机</t>
+  </si>
+  <si>
+    <t>三星无缝拼接电视</t>
+  </si>
+  <si>
+    <t>刘亚玲</t>
+  </si>
+  <si>
+    <t>2015/09/15</t>
+  </si>
+  <si>
+    <t>20412.00</t>
+  </si>
+  <si>
+    <t>1020.60</t>
+  </si>
+  <si>
+    <t>538.65</t>
+  </si>
+  <si>
+    <t>8079.75</t>
+  </si>
+  <si>
+    <t>12332.25</t>
+  </si>
+  <si>
+    <t>HUBFAA059</t>
+  </si>
+  <si>
+    <t>投影仪</t>
+  </si>
+  <si>
+    <t>明基投影仪</t>
+  </si>
+  <si>
+    <t>2015/09/11</t>
+  </si>
+  <si>
+    <t>6656.00</t>
+  </si>
+  <si>
+    <t>5688.88</t>
+  </si>
+  <si>
+    <t>284.44</t>
+  </si>
+  <si>
+    <t>150.12</t>
+  </si>
+  <si>
+    <t>2251.80</t>
+  </si>
+  <si>
+    <t>3437.08</t>
+  </si>
+  <si>
+    <t>HUBFAA060</t>
+  </si>
+  <si>
+    <t>2015/10/14</t>
+  </si>
+  <si>
+    <t>48000.00</t>
+  </si>
+  <si>
+    <t>41025.64</t>
+  </si>
+  <si>
+    <t>2051.28</t>
+  </si>
+  <si>
+    <t>1082.62</t>
+  </si>
+  <si>
+    <t>15156.68</t>
+  </si>
+  <si>
+    <t>25868.96</t>
+  </si>
+  <si>
+    <t>HUBFAA061</t>
+  </si>
+  <si>
+    <t>2015/10/20</t>
+  </si>
+  <si>
+    <t>3059.14</t>
+  </si>
+  <si>
+    <t>5221.20</t>
+  </si>
+  <si>
+    <t>D38</t>
+  </si>
+  <si>
+    <t>HUBFAA062</t>
+  </si>
+  <si>
+    <t>顾箴</t>
+  </si>
+  <si>
+    <t>2015/11/09</t>
+  </si>
+  <si>
+    <t>14988.00</t>
+  </si>
+  <si>
+    <t>12810.26</t>
+  </si>
+  <si>
+    <t>640.51</t>
+  </si>
+  <si>
+    <t>338.05</t>
+  </si>
+  <si>
+    <t>4394.65</t>
+  </si>
+  <si>
+    <t>8415.61</t>
+  </si>
+  <si>
+    <t>HUBFAA063</t>
+  </si>
+  <si>
+    <t>2015/12/22</t>
+  </si>
+  <si>
+    <t>6850.00</t>
+  </si>
+  <si>
+    <t>5854.70</t>
+  </si>
+  <si>
+    <t>292.74</t>
+  </si>
+  <si>
+    <t>154.50</t>
+  </si>
+  <si>
+    <t>1854.00</t>
+  </si>
+  <si>
+    <t>4000.70</t>
+  </si>
+  <si>
+    <t>D05-空</t>
+  </si>
+  <si>
+    <t>HUBFAA064</t>
+  </si>
+  <si>
+    <t>路以明</t>
+  </si>
+  <si>
+    <t>HUBFAA065</t>
+  </si>
+  <si>
+    <t>HUBFAA066</t>
+  </si>
+  <si>
+    <t>HUBFAA067</t>
+  </si>
+  <si>
     <t>杨腾飞</t>
   </si>
   <si>
-    <t>9688.00</t>
-  </si>
-  <si>
-    <t>484.40</t>
-  </si>
-  <si>
-    <t>255.66</t>
-  </si>
-  <si>
-    <t>2045.28</t>
-  </si>
-  <si>
-    <t>7642.72</t>
-  </si>
-  <si>
-    <t>HUBFAA014</t>
-  </si>
-  <si>
-    <t>HUBFAA015</t>
-  </si>
-  <si>
-    <t>孙格</t>
-  </si>
-  <si>
-    <t>HUBFAA016</t>
-  </si>
-  <si>
-    <t>刘宇</t>
-  </si>
-  <si>
-    <t>外接LED显示屏</t>
-  </si>
-  <si>
-    <t>HUBFAA017</t>
-  </si>
-  <si>
-    <t>杨林</t>
-  </si>
-  <si>
-    <t>4299.00</t>
-  </si>
-  <si>
-    <t>214.95</t>
-  </si>
-  <si>
-    <t>113.45</t>
-  </si>
-  <si>
-    <t>907.60</t>
-  </si>
-  <si>
-    <t>3391.40</t>
-  </si>
-  <si>
-    <t>HUBFAA018</t>
-  </si>
-  <si>
-    <t>HUBFAA019</t>
-  </si>
-  <si>
-    <t>孙泰龙</t>
-  </si>
-  <si>
-    <t>HUBFAA020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27 英寸配备 Retina 5K 显示屏的 iMac
-</t>
-  </si>
-  <si>
-    <t>程俊</t>
-  </si>
-  <si>
-    <t>17612.00</t>
-  </si>
-  <si>
-    <t>880.60</t>
-  </si>
-  <si>
-    <t>464.76</t>
-  </si>
-  <si>
-    <t>3718.08</t>
-  </si>
-  <si>
-    <t>13893.92</t>
-  </si>
-  <si>
-    <t>HUBFAA021</t>
-  </si>
-  <si>
-    <t>显示器</t>
-  </si>
-  <si>
-    <t>戴尔（DELL）U2414H 液晶显示器</t>
-  </si>
-  <si>
-    <t>陆小峰</t>
-  </si>
-  <si>
-    <t>1899.00</t>
-  </si>
-  <si>
-    <t>94.95</t>
-  </si>
-  <si>
-    <t>50.11</t>
-  </si>
-  <si>
-    <t>400.88</t>
-  </si>
-  <si>
-    <t>1498.12</t>
-  </si>
-  <si>
-    <t>HUBFAA022</t>
-  </si>
-  <si>
-    <t>张永冬</t>
-  </si>
-  <si>
-    <t>HUBFAA023</t>
-  </si>
-  <si>
-    <t>曹宇</t>
-  </si>
-  <si>
-    <t>HUBFAA024</t>
-  </si>
-  <si>
-    <t>HUBFAA025</t>
-  </si>
-  <si>
-    <t>ipad</t>
-  </si>
-  <si>
-    <t>iPad平板电脑 16G WiFi版金色</t>
-  </si>
-  <si>
-    <t>朱维刚</t>
-  </si>
-  <si>
-    <t>3288.00</t>
-  </si>
-  <si>
-    <t>2810.26</t>
-  </si>
-  <si>
-    <t>140.51</t>
-  </si>
-  <si>
-    <t>74.16</t>
-  </si>
-  <si>
-    <t>593.28</t>
-  </si>
-  <si>
-    <t>2216.98</t>
-  </si>
-  <si>
-    <t>HUBFAA026</t>
-  </si>
-  <si>
-    <t>iPad平板电脑 16G WiFi版银色</t>
-  </si>
-  <si>
-    <t>3588.00</t>
-  </si>
-  <si>
-    <t>3066.67</t>
-  </si>
-  <si>
-    <t>153.33</t>
-  </si>
-  <si>
-    <t>80.93</t>
-  </si>
-  <si>
-    <t>647.44</t>
-  </si>
-  <si>
-    <t>2419.23</t>
-  </si>
-  <si>
-    <t>HUBFAA027</t>
-  </si>
-  <si>
-    <t>3066.66</t>
-  </si>
-  <si>
-    <t>2419.22</t>
-  </si>
-  <si>
-    <t>HUBFAA028</t>
-  </si>
-  <si>
-    <t>同方超翔 开票机机箱</t>
-  </si>
-  <si>
-    <t>2015/06/12</t>
-  </si>
-  <si>
-    <t>3500.00</t>
-  </si>
-  <si>
-    <t>2991.45</t>
-  </si>
-  <si>
-    <t>149.57</t>
-  </si>
-  <si>
-    <t>78.94</t>
-  </si>
-  <si>
-    <t>631.52</t>
-  </si>
-  <si>
-    <t>2359.93</t>
-  </si>
-  <si>
-    <t>HUBFAA029</t>
-  </si>
-  <si>
-    <t>打印机</t>
-  </si>
-  <si>
-    <t>爱心诺 SK-860打印机</t>
-  </si>
-  <si>
-    <t>2600.00</t>
-  </si>
-  <si>
-    <t>2222.22</t>
-  </si>
-  <si>
-    <t>111.11</t>
-  </si>
-  <si>
-    <t>58.64</t>
-  </si>
-  <si>
-    <t>469.12</t>
-  </si>
-  <si>
-    <t>1753.10</t>
-  </si>
-  <si>
-    <t>HUBFAA030</t>
-  </si>
-  <si>
-    <t>惠普（hp）MFP M277dw 彩色打印机</t>
-  </si>
-  <si>
-    <t>4999.00</t>
-  </si>
-  <si>
-    <t>4272.65</t>
-  </si>
-  <si>
-    <t>213.63</t>
-  </si>
-  <si>
-    <t>112.75</t>
-  </si>
-  <si>
-    <t>902.00</t>
-  </si>
-  <si>
-    <t>3370.65</t>
-  </si>
-  <si>
-    <t>HUBFAA031</t>
-  </si>
-  <si>
-    <t>苏曦</t>
-  </si>
-  <si>
-    <t>16508.00</t>
-  </si>
-  <si>
-    <t>14109.40</t>
-  </si>
-  <si>
-    <t>705.47</t>
-  </si>
-  <si>
-    <t>372.33</t>
-  </si>
-  <si>
-    <t>2978.64</t>
-  </si>
-  <si>
-    <t>11130.76</t>
-  </si>
-  <si>
-    <t>HUBFAA032</t>
-  </si>
-  <si>
-    <t>张晋</t>
-  </si>
-  <si>
-    <t>2015/06/17</t>
-  </si>
-  <si>
-    <t>5982.05</t>
-  </si>
-  <si>
-    <t>299.10</t>
-  </si>
-  <si>
-    <t>157.86</t>
-  </si>
-  <si>
-    <t>1262.88</t>
-  </si>
-  <si>
-    <t>4719.17</t>
-  </si>
-  <si>
-    <t>HUBFAA033</t>
-  </si>
-  <si>
-    <t>徐建峰</t>
-  </si>
-  <si>
-    <t>HUBFAA034</t>
-  </si>
-  <si>
-    <t>顾颖旻玉</t>
-  </si>
-  <si>
-    <t>HUBFAA035</t>
-  </si>
-  <si>
-    <t>吴春艳</t>
-  </si>
-  <si>
-    <t>HUBFAA036</t>
-  </si>
-  <si>
-    <t>HUBFAA037</t>
-  </si>
-  <si>
-    <t>吴志峰</t>
-  </si>
-  <si>
-    <t>HUBFAA038</t>
-  </si>
-  <si>
-    <t>张永东</t>
-  </si>
-  <si>
-    <t>HUBFAA039</t>
-  </si>
-  <si>
-    <t>江河冰</t>
-  </si>
-  <si>
-    <t>5982.07</t>
-  </si>
-  <si>
-    <t>4719.19</t>
-  </si>
-  <si>
-    <t>HUBFAA040</t>
-  </si>
-  <si>
-    <t>朱震</t>
-  </si>
-  <si>
-    <t>2015/07/13</t>
-  </si>
-  <si>
-    <t>6900.00</t>
-  </si>
-  <si>
-    <t>5897.43</t>
-  </si>
-  <si>
-    <t>294.87</t>
-  </si>
-  <si>
-    <t>155.63</t>
-  </si>
-  <si>
-    <t>1089.41</t>
-  </si>
-  <si>
-    <t>4808.02</t>
-  </si>
-  <si>
-    <t>HUBFAA041</t>
-  </si>
-  <si>
-    <t>袁佳明</t>
-  </si>
-  <si>
-    <t>HUBFAA042</t>
-  </si>
-  <si>
-    <t>胡天宇</t>
-  </si>
-  <si>
-    <t>HUBFAA043</t>
-  </si>
-  <si>
-    <t>王鹏</t>
-  </si>
-  <si>
-    <t>5897.44</t>
-  </si>
-  <si>
-    <t>4808.03</t>
-  </si>
-  <si>
-    <t>HUBFAA044</t>
-  </si>
-  <si>
-    <t>孙康</t>
-  </si>
-  <si>
-    <t>HUBFAA045</t>
-  </si>
-  <si>
-    <t>陈康敏</t>
-  </si>
-  <si>
-    <t>D39</t>
-  </si>
-  <si>
-    <t>HUBFAA046</t>
-  </si>
-  <si>
-    <t>冯伟敏</t>
-  </si>
-  <si>
-    <t>HUBFAA047</t>
-  </si>
-  <si>
-    <t>娄学明</t>
-  </si>
-  <si>
-    <t>HUBFAA048</t>
-  </si>
-  <si>
-    <t>郭茁</t>
-  </si>
-  <si>
-    <t>HUBFAA049</t>
-  </si>
-  <si>
-    <t>周威</t>
-  </si>
-  <si>
-    <t>HUBFAA050</t>
-  </si>
-  <si>
-    <t>1799.00</t>
-  </si>
-  <si>
-    <t>1537.60</t>
-  </si>
-  <si>
-    <t>76.88</t>
-  </si>
-  <si>
-    <t>40.58</t>
-  </si>
-  <si>
-    <t>284.06</t>
-  </si>
-  <si>
-    <t>1253.54</t>
-  </si>
-  <si>
-    <t>HUBFAA051</t>
-  </si>
-  <si>
-    <t>HUBFAA052</t>
-  </si>
-  <si>
-    <t>HUBFAA053</t>
-  </si>
-  <si>
-    <t>HUBFAA054</t>
-  </si>
-  <si>
-    <t>HUBFAA055</t>
-  </si>
-  <si>
-    <t>服务器</t>
-  </si>
-  <si>
-    <t>戴尔（DELL）R620 服务器</t>
-  </si>
-  <si>
-    <t>2015/07/21</t>
-  </si>
-  <si>
-    <t>26500.00</t>
-  </si>
-  <si>
-    <t>22649.57</t>
-  </si>
-  <si>
-    <t>1132.48</t>
-  </si>
-  <si>
-    <t>597.70</t>
-  </si>
-  <si>
-    <t>4183.90</t>
-  </si>
-  <si>
-    <t>18465.67</t>
-  </si>
-  <si>
-    <t>HUBFAA056</t>
-  </si>
-  <si>
-    <t>2015/08/04</t>
-  </si>
-  <si>
-    <t>8280.34</t>
-  </si>
-  <si>
-    <t>414.02</t>
-  </si>
-  <si>
-    <t>218.51</t>
-  </si>
-  <si>
-    <t>1311.06</t>
-  </si>
-  <si>
-    <t>6969.28</t>
-  </si>
-  <si>
-    <t>HUBFAA057</t>
-  </si>
-  <si>
-    <t>交换机</t>
-  </si>
-  <si>
-    <t>机房网络产品（交换机&amp;UPS）</t>
-  </si>
-  <si>
-    <t>2015/09/28</t>
-  </si>
-  <si>
-    <t>91740.00</t>
-  </si>
-  <si>
-    <t>78410.24</t>
-  </si>
-  <si>
-    <t>3920.51</t>
-  </si>
-  <si>
-    <t>2069.16</t>
-  </si>
-  <si>
-    <t>10345.80</t>
-  </si>
-  <si>
-    <t>68064.44</t>
-  </si>
-  <si>
-    <t>HUBFAA058</t>
-  </si>
-  <si>
-    <t>电视机</t>
-  </si>
-  <si>
-    <t>三星无缝拼接电视</t>
-  </si>
-  <si>
-    <t>2015/09/15</t>
-  </si>
-  <si>
-    <t>20412.00</t>
-  </si>
-  <si>
-    <t>1020.60</t>
-  </si>
-  <si>
-    <t>538.65</t>
-  </si>
-  <si>
-    <t>2693.25</t>
-  </si>
-  <si>
-    <t>17718.75</t>
-  </si>
-  <si>
-    <t>HUBFAA059</t>
-  </si>
-  <si>
-    <t>投影仪</t>
-  </si>
-  <si>
-    <t>明基投影仪</t>
-  </si>
-  <si>
-    <t>2015/09/11</t>
-  </si>
-  <si>
-    <t>6656.00</t>
-  </si>
-  <si>
-    <t>5688.88</t>
-  </si>
-  <si>
-    <t>284.44</t>
-  </si>
-  <si>
-    <t>150.12</t>
-  </si>
-  <si>
-    <t>750.60</t>
-  </si>
-  <si>
-    <t>4938.28</t>
-  </si>
-  <si>
-    <t>HUBFAA060</t>
-  </si>
-  <si>
-    <t>2015/10/14</t>
-  </si>
-  <si>
-    <t>48000.00</t>
-  </si>
-  <si>
-    <t>41025.64</t>
-  </si>
-  <si>
-    <t>2051.28</t>
-  </si>
-  <si>
-    <t>1082.62</t>
-  </si>
-  <si>
-    <t>4330.48</t>
-  </si>
-  <si>
-    <t>36695.16</t>
-  </si>
-  <si>
-    <t>HUBFAA061</t>
-  </si>
-  <si>
-    <t>阮浪</t>
-  </si>
-  <si>
-    <t>2015/10/20</t>
-  </si>
-  <si>
-    <t>874.04</t>
-  </si>
-  <si>
-    <t>7406.30</t>
-  </si>
-  <si>
-    <t>HUBFAA062</t>
-  </si>
-  <si>
-    <t>顾箴</t>
-  </si>
-  <si>
-    <t>2015/11/09</t>
-  </si>
-  <si>
-    <t>14988.00</t>
-  </si>
-  <si>
-    <t>12810.26</t>
-  </si>
-  <si>
-    <t>640.51</t>
-  </si>
-  <si>
-    <t>338.05</t>
-  </si>
-  <si>
-    <t>1014.15</t>
-  </si>
-  <si>
-    <t>11796.11</t>
-  </si>
-  <si>
-    <t>HUBFAA063</t>
-  </si>
-  <si>
-    <t>言鉴</t>
-  </si>
-  <si>
-    <t>2015/12/22</t>
-  </si>
-  <si>
-    <t>6850.00</t>
-  </si>
-  <si>
-    <t>5854.70</t>
-  </si>
-  <si>
-    <t>292.74</t>
-  </si>
-  <si>
-    <t>154.50</t>
-  </si>
-  <si>
-    <t>309.00</t>
-  </si>
-  <si>
-    <t>5545.70</t>
-  </si>
-  <si>
-    <t>HUBFAA064</t>
-  </si>
-  <si>
-    <t>路以明</t>
-  </si>
-  <si>
-    <t>HUBFAA065</t>
-  </si>
-  <si>
-    <t>葛依文</t>
-  </si>
-  <si>
-    <t>HUBFAA066</t>
-  </si>
-  <si>
-    <t>李勇</t>
-  </si>
-  <si>
-    <t>HUBFAA067</t>
-  </si>
-  <si>
     <t>2015/12/24</t>
   </si>
   <si>
@@ -977,31 +979,139 @@
     <t>265.20</t>
   </si>
   <si>
-    <t>530.40</t>
-  </si>
-  <si>
-    <t>9519.17</t>
+    <t>3182.40</t>
+  </si>
+  <si>
+    <t>6867.17</t>
   </si>
   <si>
     <t>HUBFAA068</t>
   </si>
   <si>
-    <t>兼职人员</t>
-  </si>
-  <si>
-    <t>孙寒</t>
-  </si>
-  <si>
     <t>HUBFAA069</t>
   </si>
   <si>
-    <t>陈伟</t>
+    <t>孙宗妍</t>
   </si>
   <si>
     <t>HUBFAA070</t>
   </si>
   <si>
-    <t>叶海邦</t>
+    <t>282.74</t>
+  </si>
+  <si>
+    <t>顾超使用显示器  主机在 D39</t>
+  </si>
+  <si>
+    <t>HUBFAA071</t>
+  </si>
+  <si>
+    <t>HUBFAA073</t>
+  </si>
+  <si>
+    <t>2016/01/04</t>
+  </si>
+  <si>
+    <t>1699.50</t>
+  </si>
+  <si>
+    <t>4155.20</t>
+  </si>
+  <si>
+    <t>共享打印机以及门口屏幕</t>
+  </si>
+  <si>
+    <t>HUBFAA074</t>
+  </si>
+  <si>
+    <t>HUBFAA083</t>
+  </si>
+  <si>
+    <t>惠普HP M427dw 黑白打印机</t>
+  </si>
+  <si>
+    <t>季琳洁</t>
+  </si>
+  <si>
+    <t>2016/07/24</t>
+  </si>
+  <si>
+    <t>3015.00</t>
+  </si>
+  <si>
+    <t>2576.92</t>
+  </si>
+  <si>
+    <t>128.85</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>340.00</t>
+  </si>
+  <si>
+    <t>2236.92</t>
+  </si>
+  <si>
+    <t>HUBFAA075</t>
+  </si>
+  <si>
+    <t>沈元明</t>
+  </si>
+  <si>
+    <t>2016/01/05</t>
+  </si>
+  <si>
+    <t>HUBFAA076</t>
+  </si>
+  <si>
+    <t>HUBFAA077</t>
+  </si>
+  <si>
+    <t>霍之昊</t>
+  </si>
+  <si>
+    <t>D28</t>
+  </si>
+  <si>
+    <t>HUBFAA078</t>
+  </si>
+  <si>
+    <t>主机 在 D12   显示器库存</t>
+  </si>
+  <si>
+    <t>HUBFAA079</t>
+  </si>
+  <si>
+    <t>2016/01/20</t>
+  </si>
+  <si>
+    <t>3298.00</t>
+  </si>
+  <si>
+    <t>2818.80</t>
+  </si>
+  <si>
+    <t>140.94</t>
+  </si>
+  <si>
+    <t>74.39</t>
+  </si>
+  <si>
+    <t>818.29</t>
+  </si>
+  <si>
+    <t>2000.51</t>
+  </si>
+  <si>
+    <t>HUBFAA072</t>
+  </si>
+  <si>
+    <t>陈世豪</t>
+  </si>
+  <si>
+    <t>9100.00</t>
   </si>
   <si>
     <t>7777.78</t>
@@ -1013,118 +1123,43 @@
     <t>205.25</t>
   </si>
   <si>
-    <t>410.50</t>
-  </si>
-  <si>
-    <t>7367.28</t>
-  </si>
-  <si>
-    <t>D40</t>
-  </si>
-  <si>
-    <t>HUBFAA071</t>
-  </si>
-  <si>
-    <t>孙秀全</t>
-  </si>
-  <si>
-    <t>HUBFAA072</t>
-  </si>
-  <si>
-    <t>谷宛东</t>
-  </si>
-  <si>
-    <t>9100.00</t>
-  </si>
-  <si>
-    <t>HUBFAA073</t>
-  </si>
-  <si>
-    <t>沈达添</t>
-  </si>
-  <si>
-    <t>2016/01/04</t>
-  </si>
-  <si>
-    <t>5700.20</t>
-  </si>
-  <si>
-    <t>HUBFAA074</t>
-  </si>
-  <si>
-    <t>黄威伟</t>
-  </si>
-  <si>
-    <t>037</t>
-  </si>
-  <si>
-    <t>HUBFAA075</t>
-  </si>
-  <si>
-    <t>2016/01/05</t>
-  </si>
-  <si>
-    <t>HUBFAA076</t>
-  </si>
-  <si>
-    <t>HUBFAA077</t>
-  </si>
-  <si>
-    <t>HUBFAA078</t>
-  </si>
-  <si>
-    <t>HUBFAA079</t>
-  </si>
-  <si>
-    <t>2016/01/20</t>
-  </si>
-  <si>
-    <t>3298.00</t>
-  </si>
-  <si>
-    <t>2818.80</t>
-  </si>
-  <si>
-    <t>140.94</t>
-  </si>
-  <si>
-    <t>74.39</t>
-  </si>
-  <si>
-    <t>2744.41</t>
+    <t>2463.00</t>
+  </si>
+  <si>
+    <t>5314.78</t>
+  </si>
+  <si>
+    <t>D25</t>
   </si>
   <si>
     <t>HUBFAA080</t>
   </si>
   <si>
-    <t>2016/01/11</t>
-  </si>
-  <si>
-    <t>12345.00</t>
-  </si>
-  <si>
-    <t>10551.28</t>
-  </si>
-  <si>
-    <t>527.56</t>
-  </si>
-  <si>
-    <t>278.44</t>
-  </si>
-  <si>
-    <t>10272.84</t>
+    <t>2016/02/17</t>
+  </si>
+  <si>
+    <t>1545.00</t>
+  </si>
+  <si>
+    <t>4309.70</t>
+  </si>
+  <si>
+    <t>库存</t>
   </si>
   <si>
     <t>HUBFAA081</t>
   </si>
   <si>
-    <t>2015/12/10</t>
-  </si>
-  <si>
-    <t>148.78</t>
-  </si>
-  <si>
-    <t>2670.02</t>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>HUBFAA082</t>
+  </si>
+  <si>
+    <t>孙美玲</t>
+  </si>
+  <si>
+    <t>D63</t>
   </si>
 </sst>
 </file>
@@ -1456,7 +1491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:P83"/>
+  <dimension ref="B2:P85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1523,7 +1558,7 @@
         <v>18</v>
       </c>
       <c r="F3">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
@@ -1567,7 +1602,7 @@
         <v>18</v>
       </c>
       <c r="F4">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
         <v>28</v>
@@ -1611,13 +1646,7 @@
         <v>18</v>
       </c>
       <c r="F5">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
         <v>21</v>
@@ -1639,6 +1668,9 @@
       </c>
       <c r="O5" t="s">
         <v>26</v>
+      </c>
+      <c r="P5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:16">
@@ -1655,7 +1687,7 @@
         <v>18</v>
       </c>
       <c r="F6">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
         <v>28</v>
@@ -1699,7 +1731,7 @@
         <v>18</v>
       </c>
       <c r="F7">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
         <v>28</v>
@@ -1743,7 +1775,7 @@
         <v>18</v>
       </c>
       <c r="F8">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
         <v>28</v>
@@ -1787,7 +1819,7 @@
         <v>18</v>
       </c>
       <c r="F9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
         <v>19</v>
@@ -1831,13 +1863,13 @@
         <v>18</v>
       </c>
       <c r="F10">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
         <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I10" t="s">
         <v>21</v>
@@ -1859,6 +1891,9 @@
       </c>
       <c r="O10" t="s">
         <v>26</v>
+      </c>
+      <c r="P10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="2:16">
@@ -1875,7 +1910,7 @@
         <v>18</v>
       </c>
       <c r="F11">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
         <v>19</v>
@@ -1919,7 +1954,7 @@
         <v>18</v>
       </c>
       <c r="F12">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
         <v>52</v>
@@ -1963,7 +1998,7 @@
         <v>18</v>
       </c>
       <c r="F13">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
         <v>52</v>
@@ -2007,7 +2042,7 @@
         <v>18</v>
       </c>
       <c r="F14">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
         <v>59</v>
@@ -2051,39 +2086,33 @@
         <v>18</v>
       </c>
       <c r="F15">
-        <v>28</v>
-      </c>
-      <c r="G15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="I15" t="s">
         <v>21</v>
       </c>
       <c r="J15" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" t="s">
+        <v>68</v>
+      </c>
+      <c r="L15" t="s">
         <v>69</v>
       </c>
-      <c r="K15" t="s">
-        <v>69</v>
-      </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>70</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>71</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>72</v>
-      </c>
-      <c r="O15" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="16" spans="2:16">
       <c r="B16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
         <v>43</v>
@@ -2095,7 +2124,7 @@
         <v>18</v>
       </c>
       <c r="F16">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
         <v>19</v>
@@ -2127,7 +2156,7 @@
     </row>
     <row r="17" spans="2:16">
       <c r="B17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
@@ -2139,13 +2168,13 @@
         <v>18</v>
       </c>
       <c r="F17">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="H17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I17" t="s">
         <v>21</v>
@@ -2171,7 +2200,7 @@
     </row>
     <row r="18" spans="2:16">
       <c r="B18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
@@ -2183,13 +2212,13 @@
         <v>18</v>
       </c>
       <c r="F18">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
         <v>52</v>
       </c>
       <c r="H18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s">
         <v>21</v>
@@ -2212,13 +2241,10 @@
       <c r="O18" t="s">
         <v>26</v>
       </c>
-      <c r="P18" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="19" spans="2:16">
       <c r="B19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
         <v>43</v>
@@ -2230,39 +2256,42 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
         <v>28</v>
       </c>
       <c r="H19" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="I19" t="s">
         <v>21</v>
       </c>
       <c r="J19" t="s">
+        <v>79</v>
+      </c>
+      <c r="K19" t="s">
+        <v>79</v>
+      </c>
+      <c r="L19" t="s">
+        <v>80</v>
+      </c>
+      <c r="M19" t="s">
+        <v>81</v>
+      </c>
+      <c r="N19" t="s">
         <v>82</v>
       </c>
-      <c r="K19" t="s">
-        <v>82</v>
-      </c>
-      <c r="L19" t="s">
+      <c r="O19" t="s">
         <v>83</v>
       </c>
-      <c r="M19" t="s">
+      <c r="P19" t="s">
         <v>84</v>
-      </c>
-      <c r="N19" t="s">
-        <v>85</v>
-      </c>
-      <c r="O19" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="20" spans="2:16">
       <c r="B20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
@@ -2274,13 +2303,7 @@
         <v>18</v>
       </c>
       <c r="F20">
-        <v>28</v>
-      </c>
-      <c r="G20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="I20" t="s">
         <v>21</v>
@@ -2306,7 +2329,7 @@
     </row>
     <row r="21" spans="2:16">
       <c r="B21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>
@@ -2318,13 +2341,7 @@
         <v>18</v>
       </c>
       <c r="F21">
-        <v>28</v>
-      </c>
-      <c r="G21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="I21" t="s">
         <v>21</v>
@@ -2347,198 +2364,201 @@
       <c r="O21" t="s">
         <v>26</v>
       </c>
+      <c r="P21" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="22" spans="2:16">
       <c r="B22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
         <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E22" t="s">
         <v>18</v>
       </c>
       <c r="F22">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
         <v>52</v>
       </c>
       <c r="H22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I22" t="s">
         <v>21</v>
       </c>
       <c r="J22" t="s">
+        <v>91</v>
+      </c>
+      <c r="K22" t="s">
+        <v>91</v>
+      </c>
+      <c r="L22" t="s">
+        <v>92</v>
+      </c>
+      <c r="M22" t="s">
         <v>93</v>
       </c>
-      <c r="K22" t="s">
-        <v>93</v>
-      </c>
-      <c r="L22" t="s">
+      <c r="N22" t="s">
         <v>94</v>
       </c>
-      <c r="M22" t="s">
+      <c r="O22" t="s">
         <v>95</v>
-      </c>
-      <c r="N22" t="s">
-        <v>96</v>
-      </c>
-      <c r="O22" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="23" spans="2:16">
       <c r="B23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" t="s">
         <v>98</v>
       </c>
-      <c r="C23" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" t="s">
-        <v>100</v>
-      </c>
       <c r="E23" t="s">
         <v>18</v>
       </c>
       <c r="F23">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
         <v>59</v>
       </c>
       <c r="H23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I23" t="s">
         <v>21</v>
       </c>
       <c r="J23" t="s">
+        <v>100</v>
+      </c>
+      <c r="K23" t="s">
+        <v>100</v>
+      </c>
+      <c r="L23" t="s">
+        <v>101</v>
+      </c>
+      <c r="M23" t="s">
         <v>102</v>
       </c>
-      <c r="K23" t="s">
-        <v>102</v>
-      </c>
-      <c r="L23" t="s">
+      <c r="N23" t="s">
         <v>103</v>
       </c>
-      <c r="M23" t="s">
+      <c r="O23" t="s">
         <v>104</v>
-      </c>
-      <c r="N23" t="s">
-        <v>105</v>
-      </c>
-      <c r="O23" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="24" spans="2:16">
       <c r="B24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E24" t="s">
         <v>18</v>
       </c>
       <c r="F24">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
         <v>28</v>
       </c>
       <c r="H24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I24" t="s">
         <v>21</v>
       </c>
       <c r="J24" t="s">
+        <v>100</v>
+      </c>
+      <c r="K24" t="s">
+        <v>100</v>
+      </c>
+      <c r="L24" t="s">
+        <v>101</v>
+      </c>
+      <c r="M24" t="s">
         <v>102</v>
       </c>
-      <c r="K24" t="s">
-        <v>102</v>
-      </c>
-      <c r="L24" t="s">
+      <c r="N24" t="s">
         <v>103</v>
       </c>
-      <c r="M24" t="s">
+      <c r="O24" t="s">
         <v>104</v>
-      </c>
-      <c r="N24" t="s">
-        <v>105</v>
-      </c>
-      <c r="O24" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="25" spans="2:16">
       <c r="B25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E25" t="s">
         <v>18</v>
       </c>
       <c r="F25">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
         <v>28</v>
       </c>
       <c r="H25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I25" t="s">
         <v>21</v>
       </c>
       <c r="J25" t="s">
+        <v>100</v>
+      </c>
+      <c r="K25" t="s">
+        <v>100</v>
+      </c>
+      <c r="L25" t="s">
+        <v>101</v>
+      </c>
+      <c r="M25" t="s">
         <v>102</v>
       </c>
-      <c r="K25" t="s">
-        <v>102</v>
-      </c>
-      <c r="L25" t="s">
+      <c r="N25" t="s">
         <v>103</v>
       </c>
-      <c r="M25" t="s">
+      <c r="O25" t="s">
         <v>104</v>
-      </c>
-      <c r="N25" t="s">
-        <v>105</v>
-      </c>
-      <c r="O25" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="26" spans="2:16">
       <c r="B26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E26" t="s">
         <v>18</v>
       </c>
       <c r="F26">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G26" t="s">
         <v>28</v>
@@ -2550,83 +2570,83 @@
         <v>21</v>
       </c>
       <c r="J26" t="s">
+        <v>100</v>
+      </c>
+      <c r="K26" t="s">
+        <v>100</v>
+      </c>
+      <c r="L26" t="s">
+        <v>101</v>
+      </c>
+      <c r="M26" t="s">
         <v>102</v>
       </c>
-      <c r="K26" t="s">
-        <v>102</v>
-      </c>
-      <c r="L26" t="s">
+      <c r="N26" t="s">
         <v>103</v>
       </c>
-      <c r="M26" t="s">
+      <c r="O26" t="s">
         <v>104</v>
-      </c>
-      <c r="N26" t="s">
-        <v>105</v>
-      </c>
-      <c r="O26" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="27" spans="2:16">
       <c r="B27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" t="s">
         <v>112</v>
       </c>
-      <c r="C27" t="s">
-        <v>113</v>
-      </c>
-      <c r="D27" t="s">
-        <v>114</v>
-      </c>
       <c r="E27" t="s">
         <v>18</v>
       </c>
       <c r="F27">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
         <v>28</v>
       </c>
       <c r="H27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I27" t="s">
         <v>21</v>
       </c>
       <c r="J27" t="s">
+        <v>114</v>
+      </c>
+      <c r="K27" t="s">
+        <v>115</v>
+      </c>
+      <c r="L27" t="s">
         <v>116</v>
       </c>
-      <c r="K27" t="s">
+      <c r="M27" t="s">
         <v>117</v>
       </c>
-      <c r="L27" t="s">
+      <c r="N27" t="s">
         <v>118</v>
       </c>
-      <c r="M27" t="s">
+      <c r="O27" t="s">
         <v>119</v>
-      </c>
-      <c r="N27" t="s">
-        <v>120</v>
-      </c>
-      <c r="O27" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="28" spans="2:16">
       <c r="B28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E28" t="s">
         <v>18</v>
       </c>
       <c r="F28">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
         <v>52</v>
@@ -2638,39 +2658,39 @@
         <v>21</v>
       </c>
       <c r="J28" t="s">
+        <v>122</v>
+      </c>
+      <c r="K28" t="s">
+        <v>123</v>
+      </c>
+      <c r="L28" t="s">
         <v>124</v>
       </c>
-      <c r="K28" t="s">
+      <c r="M28" t="s">
         <v>125</v>
       </c>
-      <c r="L28" t="s">
+      <c r="N28" t="s">
         <v>126</v>
       </c>
-      <c r="M28" t="s">
+      <c r="O28" t="s">
         <v>127</v>
-      </c>
-      <c r="N28" t="s">
-        <v>128</v>
-      </c>
-      <c r="O28" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="29" spans="2:16">
       <c r="B29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E29" t="s">
         <v>18</v>
       </c>
       <c r="F29">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
         <v>52</v>
@@ -2682,39 +2702,39 @@
         <v>21</v>
       </c>
       <c r="J29" t="s">
+        <v>122</v>
+      </c>
+      <c r="K29" t="s">
+        <v>129</v>
+      </c>
+      <c r="L29" t="s">
         <v>124</v>
       </c>
-      <c r="K29" t="s">
-        <v>131</v>
-      </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
+        <v>125</v>
+      </c>
+      <c r="N29" t="s">
         <v>126</v>
       </c>
-      <c r="M29" t="s">
-        <v>127</v>
-      </c>
-      <c r="N29" t="s">
-        <v>128</v>
-      </c>
       <c r="O29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="2:16">
       <c r="B30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C30" t="s">
         <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E30" t="s">
         <v>18</v>
       </c>
       <c r="F30">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
         <v>19</v>
@@ -2723,42 +2743,42 @@
         <v>39</v>
       </c>
       <c r="I30" t="s">
+        <v>133</v>
+      </c>
+      <c r="J30" t="s">
+        <v>134</v>
+      </c>
+      <c r="K30" t="s">
         <v>135</v>
       </c>
-      <c r="J30" t="s">
+      <c r="L30" t="s">
         <v>136</v>
       </c>
-      <c r="K30" t="s">
+      <c r="M30" t="s">
         <v>137</v>
       </c>
-      <c r="L30" t="s">
+      <c r="N30" t="s">
         <v>138</v>
       </c>
-      <c r="M30" t="s">
+      <c r="O30" t="s">
         <v>139</v>
-      </c>
-      <c r="N30" t="s">
-        <v>140</v>
-      </c>
-      <c r="O30" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="31" spans="2:16">
       <c r="B31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" t="s">
         <v>142</v>
       </c>
-      <c r="C31" t="s">
-        <v>143</v>
-      </c>
-      <c r="D31" t="s">
-        <v>144</v>
-      </c>
       <c r="E31" t="s">
         <v>18</v>
       </c>
       <c r="F31">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
         <v>19</v>
@@ -2767,42 +2787,42 @@
         <v>39</v>
       </c>
       <c r="I31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J31" t="s">
+        <v>143</v>
+      </c>
+      <c r="K31" t="s">
+        <v>144</v>
+      </c>
+      <c r="L31" t="s">
         <v>145</v>
       </c>
-      <c r="K31" t="s">
+      <c r="M31" t="s">
         <v>146</v>
       </c>
-      <c r="L31" t="s">
+      <c r="N31" t="s">
         <v>147</v>
       </c>
-      <c r="M31" t="s">
+      <c r="O31" t="s">
         <v>148</v>
-      </c>
-      <c r="N31" t="s">
-        <v>149</v>
-      </c>
-      <c r="O31" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="32" spans="2:16">
       <c r="B32" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D32" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E32" t="s">
         <v>18</v>
       </c>
       <c r="F32">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G32" t="s">
         <v>52</v>
@@ -2811,74 +2831,74 @@
         <v>52</v>
       </c>
       <c r="I32" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J32" t="s">
+        <v>151</v>
+      </c>
+      <c r="K32" t="s">
+        <v>152</v>
+      </c>
+      <c r="L32" t="s">
         <v>153</v>
       </c>
-      <c r="K32" t="s">
+      <c r="M32" t="s">
         <v>154</v>
       </c>
-      <c r="L32" t="s">
+      <c r="N32" t="s">
         <v>155</v>
       </c>
-      <c r="M32" t="s">
+      <c r="O32" t="s">
         <v>156</v>
-      </c>
-      <c r="N32" t="s">
-        <v>157</v>
-      </c>
-      <c r="O32" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="33" spans="2:16">
       <c r="B33" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C33" t="s">
         <v>57</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E33" t="s">
         <v>18</v>
       </c>
       <c r="F33">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
         <v>28</v>
       </c>
       <c r="H33" t="s">
+        <v>158</v>
+      </c>
+      <c r="I33" t="s">
+        <v>133</v>
+      </c>
+      <c r="J33" t="s">
+        <v>159</v>
+      </c>
+      <c r="K33" t="s">
         <v>160</v>
       </c>
-      <c r="I33" t="s">
-        <v>135</v>
-      </c>
-      <c r="J33" t="s">
+      <c r="L33" t="s">
         <v>161</v>
       </c>
-      <c r="K33" t="s">
+      <c r="M33" t="s">
         <v>162</v>
       </c>
-      <c r="L33" t="s">
+      <c r="N33" t="s">
         <v>163</v>
       </c>
-      <c r="M33" t="s">
+      <c r="O33" t="s">
         <v>164</v>
-      </c>
-      <c r="N33" t="s">
-        <v>165</v>
-      </c>
-      <c r="O33" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="34" spans="2:16">
       <c r="B34" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C34" t="s">
         <v>16</v>
@@ -2890,39 +2910,39 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G34" t="s">
         <v>28</v>
       </c>
       <c r="H34" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I34" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J34" t="s">
         <v>22</v>
       </c>
       <c r="K34" t="s">
+        <v>168</v>
+      </c>
+      <c r="L34" t="s">
+        <v>169</v>
+      </c>
+      <c r="M34" t="s">
         <v>170</v>
       </c>
-      <c r="L34" t="s">
+      <c r="N34" t="s">
         <v>171</v>
       </c>
-      <c r="M34" t="s">
+      <c r="O34" t="s">
         <v>172</v>
-      </c>
-      <c r="N34" t="s">
-        <v>173</v>
-      </c>
-      <c r="O34" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="35" spans="2:16">
       <c r="B35" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C35" t="s">
         <v>16</v>
@@ -2934,39 +2954,39 @@
         <v>18</v>
       </c>
       <c r="F35">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G35" t="s">
         <v>28</v>
       </c>
       <c r="H35" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J35" t="s">
         <v>22</v>
       </c>
       <c r="K35" t="s">
+        <v>168</v>
+      </c>
+      <c r="L35" t="s">
+        <v>169</v>
+      </c>
+      <c r="M35" t="s">
         <v>170</v>
       </c>
-      <c r="L35" t="s">
+      <c r="N35" t="s">
         <v>171</v>
       </c>
-      <c r="M35" t="s">
+      <c r="O35" t="s">
         <v>172</v>
-      </c>
-      <c r="N35" t="s">
-        <v>173</v>
-      </c>
-      <c r="O35" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="36" spans="2:16">
       <c r="B36" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C36" t="s">
         <v>16</v>
@@ -2978,39 +2998,39 @@
         <v>18</v>
       </c>
       <c r="F36">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G36" t="s">
         <v>28</v>
       </c>
       <c r="H36" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I36" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J36" t="s">
         <v>22</v>
       </c>
       <c r="K36" t="s">
+        <v>168</v>
+      </c>
+      <c r="L36" t="s">
+        <v>169</v>
+      </c>
+      <c r="M36" t="s">
         <v>170</v>
       </c>
-      <c r="L36" t="s">
+      <c r="N36" t="s">
         <v>171</v>
       </c>
-      <c r="M36" t="s">
+      <c r="O36" t="s">
         <v>172</v>
-      </c>
-      <c r="N36" t="s">
-        <v>173</v>
-      </c>
-      <c r="O36" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="37" spans="2:16">
       <c r="B37" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C37" t="s">
         <v>16</v>
@@ -3022,39 +3042,39 @@
         <v>18</v>
       </c>
       <c r="F37">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="H37" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I37" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J37" t="s">
         <v>22</v>
       </c>
       <c r="K37" t="s">
+        <v>168</v>
+      </c>
+      <c r="L37" t="s">
+        <v>169</v>
+      </c>
+      <c r="M37" t="s">
         <v>170</v>
       </c>
-      <c r="L37" t="s">
+      <c r="N37" t="s">
         <v>171</v>
       </c>
-      <c r="M37" t="s">
+      <c r="O37" t="s">
         <v>172</v>
-      </c>
-      <c r="N37" t="s">
-        <v>173</v>
-      </c>
-      <c r="O37" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="38" spans="2:16">
       <c r="B38" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C38" t="s">
         <v>16</v>
@@ -3066,39 +3086,39 @@
         <v>18</v>
       </c>
       <c r="F38">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G38" t="s">
         <v>28</v>
       </c>
       <c r="H38" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I38" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J38" t="s">
         <v>22</v>
       </c>
       <c r="K38" t="s">
+        <v>168</v>
+      </c>
+      <c r="L38" t="s">
+        <v>169</v>
+      </c>
+      <c r="M38" t="s">
         <v>170</v>
       </c>
-      <c r="L38" t="s">
+      <c r="N38" t="s">
         <v>171</v>
       </c>
-      <c r="M38" t="s">
+      <c r="O38" t="s">
         <v>172</v>
-      </c>
-      <c r="N38" t="s">
-        <v>173</v>
-      </c>
-      <c r="O38" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="39" spans="2:16">
       <c r="B39" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C39" t="s">
         <v>16</v>
@@ -3110,39 +3130,42 @@
         <v>18</v>
       </c>
       <c r="F39">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="H39" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I39" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J39" t="s">
         <v>22</v>
       </c>
       <c r="K39" t="s">
+        <v>168</v>
+      </c>
+      <c r="L39" t="s">
+        <v>169</v>
+      </c>
+      <c r="M39" t="s">
         <v>170</v>
       </c>
-      <c r="L39" t="s">
+      <c r="N39" t="s">
         <v>171</v>
       </c>
-      <c r="M39" t="s">
+      <c r="O39" t="s">
         <v>172</v>
       </c>
-      <c r="N39" t="s">
-        <v>173</v>
-      </c>
-      <c r="O39" t="s">
-        <v>174</v>
+      <c r="P39" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="2:16">
       <c r="B40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C40" t="s">
         <v>16</v>
@@ -3154,34 +3177,37 @@
         <v>18</v>
       </c>
       <c r="F40">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G40" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="H40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I40" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J40" t="s">
         <v>22</v>
       </c>
       <c r="K40" t="s">
+        <v>168</v>
+      </c>
+      <c r="L40" t="s">
+        <v>169</v>
+      </c>
+      <c r="M40" t="s">
         <v>170</v>
       </c>
-      <c r="L40" t="s">
+      <c r="N40" t="s">
         <v>171</v>
       </c>
-      <c r="M40" t="s">
+      <c r="O40" t="s">
         <v>172</v>
       </c>
-      <c r="N40" t="s">
-        <v>173</v>
-      </c>
-      <c r="O40" t="s">
-        <v>174</v>
+      <c r="P40" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="2:16">
@@ -3198,7 +3224,7 @@
         <v>18</v>
       </c>
       <c r="F41">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G41" t="s">
         <v>59</v>
@@ -3207,7 +3233,7 @@
         <v>187</v>
       </c>
       <c r="I41" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J41" t="s">
         <v>22</v>
@@ -3216,13 +3242,13 @@
         <v>188</v>
       </c>
       <c r="L41" t="s">
+        <v>169</v>
+      </c>
+      <c r="M41" t="s">
+        <v>170</v>
+      </c>
+      <c r="N41" t="s">
         <v>171</v>
-      </c>
-      <c r="M41" t="s">
-        <v>172</v>
-      </c>
-      <c r="N41" t="s">
-        <v>173</v>
       </c>
       <c r="O41" t="s">
         <v>189</v>
@@ -3242,7 +3268,7 @@
         <v>18</v>
       </c>
       <c r="F42">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G42" t="s">
         <v>28</v>
@@ -3286,7 +3312,7 @@
         <v>18</v>
       </c>
       <c r="F43">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G43" t="s">
         <v>28</v>
@@ -3330,10 +3356,10 @@
         <v>18</v>
       </c>
       <c r="F44">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G44" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H44" t="s">
         <v>202</v>
@@ -3374,7 +3400,7 @@
         <v>18</v>
       </c>
       <c r="F45">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G45" t="s">
         <v>28</v>
@@ -3418,10 +3444,10 @@
         <v>18</v>
       </c>
       <c r="F46">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G46" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="H46" t="s">
         <v>208</v>
@@ -3462,10 +3488,10 @@
         <v>18</v>
       </c>
       <c r="F47">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G47" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="H47" t="s">
         <v>210</v>
@@ -3491,13 +3517,10 @@
       <c r="O47" t="s">
         <v>206</v>
       </c>
-      <c r="P47" t="s">
-        <v>211</v>
-      </c>
     </row>
     <row r="48" spans="2:16">
       <c r="B48" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C48" t="s">
         <v>16</v>
@@ -3509,13 +3532,7 @@
         <v>18</v>
       </c>
       <c r="F48">
-        <v>29</v>
-      </c>
-      <c r="G48" t="s">
-        <v>28</v>
-      </c>
-      <c r="H48" t="s">
-        <v>213</v>
+        <v>19</v>
       </c>
       <c r="I48" t="s">
         <v>192</v>
@@ -3538,10 +3555,13 @@
       <c r="O48" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="49" spans="2:15">
+      <c r="P48" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16">
       <c r="B49" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C49" t="s">
         <v>16</v>
@@ -3553,13 +3573,13 @@
         <v>18</v>
       </c>
       <c r="F49">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G49" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="H49" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I49" t="s">
         <v>192</v>
@@ -3582,8 +3602,11 @@
       <c r="O49" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="50" spans="2:15">
+      <c r="P49" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16">
       <c r="B50" t="s">
         <v>216</v>
       </c>
@@ -3597,10 +3620,10 @@
         <v>18</v>
       </c>
       <c r="F50">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G50" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="H50" t="s">
         <v>217</v>
@@ -3627,7 +3650,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="51" spans="2:15">
+    <row r="51" spans="2:16">
       <c r="B51" t="s">
         <v>218</v>
       </c>
@@ -3641,10 +3664,10 @@
         <v>18</v>
       </c>
       <c r="F51">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G51" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="H51" t="s">
         <v>219</v>
@@ -3671,21 +3694,21 @@
         <v>206</v>
       </c>
     </row>
-    <row r="52" spans="2:15">
+    <row r="52" spans="2:16">
       <c r="B52" t="s">
         <v>220</v>
       </c>
       <c r="C52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D52" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E52" t="s">
         <v>18</v>
       </c>
       <c r="F52">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G52" t="s">
         <v>59</v>
@@ -3715,21 +3738,21 @@
         <v>226</v>
       </c>
     </row>
-    <row r="53" spans="2:15">
+    <row r="53" spans="2:16">
       <c r="B53" t="s">
         <v>227</v>
       </c>
       <c r="C53" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E53" t="s">
         <v>18</v>
       </c>
       <c r="F53">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G53" t="s">
         <v>19</v>
@@ -3759,21 +3782,27 @@
         <v>226</v>
       </c>
     </row>
-    <row r="54" spans="2:15">
+    <row r="54" spans="2:16">
       <c r="B54" t="s">
         <v>228</v>
       </c>
       <c r="C54" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D54" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E54" t="s">
         <v>18</v>
       </c>
       <c r="F54">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="G54" t="s">
+        <v>28</v>
+      </c>
+      <c r="H54" t="s">
+        <v>166</v>
       </c>
       <c r="I54" t="s">
         <v>192</v>
@@ -3797,21 +3826,27 @@
         <v>226</v>
       </c>
     </row>
-    <row r="55" spans="2:15">
+    <row r="55" spans="2:16">
       <c r="B55" t="s">
         <v>229</v>
       </c>
       <c r="C55" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D55" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E55" t="s">
         <v>18</v>
       </c>
       <c r="F55">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="G55" t="s">
+        <v>19</v>
+      </c>
+      <c r="H55" t="s">
+        <v>230</v>
       </c>
       <c r="I55" t="s">
         <v>192</v>
@@ -3835,21 +3870,27 @@
         <v>226</v>
       </c>
     </row>
-    <row r="56" spans="2:15">
+    <row r="56" spans="2:16">
       <c r="B56" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D56" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E56" t="s">
         <v>18</v>
       </c>
       <c r="F56">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="G56" t="s">
+        <v>28</v>
+      </c>
+      <c r="H56" t="s">
+        <v>204</v>
       </c>
       <c r="I56" t="s">
         <v>192</v>
@@ -3873,21 +3914,21 @@
         <v>226</v>
       </c>
     </row>
-    <row r="57" spans="2:15">
+    <row r="57" spans="2:16">
       <c r="B57" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C57" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D57" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E57" t="s">
         <v>18</v>
       </c>
       <c r="F57">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G57" t="s">
         <v>28</v>
@@ -3896,30 +3937,30 @@
         <v>37</v>
       </c>
       <c r="I57" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J57" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K57" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L57" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M57" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N57" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O57" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="58" spans="2:15">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16">
       <c r="B58" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C58" t="s">
         <v>57</v>
@@ -3931,51 +3972,51 @@
         <v>18</v>
       </c>
       <c r="F58">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G58" t="s">
         <v>28</v>
       </c>
       <c r="H58" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I58" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K58" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L58" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M58" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N58" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O58" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="59" spans="2:15">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16">
       <c r="B59" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C59" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D59" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E59" t="s">
         <v>18</v>
       </c>
       <c r="F59">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G59" t="s">
         <v>28</v>
@@ -3984,86 +4025,86 @@
         <v>37</v>
       </c>
       <c r="I59" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J59" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K59" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L59" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M59" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N59" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O59" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="60" spans="2:15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16">
       <c r="B60" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C60" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D60" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E60" t="s">
         <v>18</v>
       </c>
       <c r="F60">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G60" t="s">
         <v>19</v>
       </c>
       <c r="H60" t="s">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="I60" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="J60" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K60" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L60" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M60" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="N60" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O60" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="61" spans="2:15">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16">
       <c r="B61" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C61" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D61" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E61" t="s">
         <v>18</v>
       </c>
       <c r="F61">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G61" t="s">
         <v>28</v>
@@ -4072,42 +4113,42 @@
         <v>37</v>
       </c>
       <c r="I61" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J61" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K61" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L61" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M61" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N61" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O61" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="62" spans="2:15">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16">
       <c r="B62" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C62" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D62" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E62" t="s">
         <v>18</v>
       </c>
       <c r="F62">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G62" t="s">
         <v>28</v>
@@ -4116,118 +4157,115 @@
         <v>37</v>
       </c>
       <c r="I62" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J62" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K62" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L62" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M62" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N62" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="O62" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="63" spans="2:15">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16">
       <c r="B63" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C63" t="s">
         <v>57</v>
       </c>
       <c r="D63" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E63" t="s">
         <v>18</v>
       </c>
       <c r="F63">
-        <v>32</v>
-      </c>
-      <c r="G63" t="s">
-        <v>28</v>
-      </c>
-      <c r="H63" t="s">
-        <v>286</v>
+        <v>22</v>
       </c>
       <c r="I63" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K63" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L63" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M63" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N63" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O63" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="64" spans="2:15">
+        <v>290</v>
+      </c>
+      <c r="P63" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16">
       <c r="B64" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C64" t="s">
         <v>57</v>
       </c>
       <c r="D64" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E64" t="s">
         <v>18</v>
       </c>
       <c r="F64">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G64" t="s">
         <v>59</v>
       </c>
       <c r="H64" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I64" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J64" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K64" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L64" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M64" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N64" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O64" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="65" spans="2:16">
       <c r="B65" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C65" t="s">
         <v>16</v>
@@ -4239,39 +4277,36 @@
         <v>18</v>
       </c>
       <c r="F65">
-        <v>34</v>
-      </c>
-      <c r="G65" t="s">
-        <v>59</v>
-      </c>
-      <c r="H65" t="s">
-        <v>300</v>
+        <v>24</v>
       </c>
       <c r="I65" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J65" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K65" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L65" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M65" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N65" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O65" t="s">
-        <v>307</v>
+        <v>308</v>
+      </c>
+      <c r="P65" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="66" spans="2:16">
       <c r="B66" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C66" t="s">
         <v>16</v>
@@ -4283,39 +4318,39 @@
         <v>18</v>
       </c>
       <c r="F66">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G66" t="s">
         <v>28</v>
       </c>
       <c r="H66" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I66" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J66" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K66" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L66" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M66" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N66" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O66" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="67" spans="2:16">
       <c r="B67" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C67" t="s">
         <v>16</v>
@@ -4327,39 +4362,33 @@
         <v>18</v>
       </c>
       <c r="F67">
-        <v>34</v>
-      </c>
-      <c r="G67" t="s">
-        <v>52</v>
-      </c>
-      <c r="H67" t="s">
-        <v>311</v>
+        <v>24</v>
       </c>
       <c r="I67" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J67" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K67" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L67" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M67" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N67" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O67" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="68" spans="2:16">
       <c r="B68" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C68" t="s">
         <v>16</v>
@@ -4371,34 +4400,34 @@
         <v>18</v>
       </c>
       <c r="F68">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G68" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H68" t="s">
-        <v>313</v>
+        <v>106</v>
       </c>
       <c r="I68" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J68" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K68" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L68" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M68" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N68" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O68" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="69" spans="2:16">
@@ -4415,39 +4444,39 @@
         <v>18</v>
       </c>
       <c r="F69">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G69" t="s">
         <v>28</v>
       </c>
       <c r="H69" t="s">
-        <v>31</v>
+        <v>315</v>
       </c>
       <c r="I69" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J69" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K69" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L69" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M69" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N69" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O69" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="70" spans="2:16">
       <c r="B70" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C70" t="s">
         <v>16</v>
@@ -4459,42 +4488,39 @@
         <v>18</v>
       </c>
       <c r="F70">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G70" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H70" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="I70" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J70" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K70" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L70" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M70" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N70" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O70" t="s">
-        <v>307</v>
-      </c>
-      <c r="P70" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="71" spans="2:16">
       <c r="B71" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C71" t="s">
         <v>16</v>
@@ -4506,39 +4532,39 @@
         <v>18</v>
       </c>
       <c r="F71">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G71" t="s">
         <v>28</v>
       </c>
       <c r="H71" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I71" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J71" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K71" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L71" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M71" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N71" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O71" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="72" spans="2:16">
       <c r="B72" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C72" t="s">
         <v>16</v>
@@ -4550,42 +4576,42 @@
         <v>18</v>
       </c>
       <c r="F72">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G72" t="s">
         <v>28</v>
       </c>
       <c r="H72" t="s">
+        <v>33</v>
+      </c>
+      <c r="I72" t="s">
+        <v>316</v>
+      </c>
+      <c r="J72" t="s">
+        <v>303</v>
+      </c>
+      <c r="K72" t="s">
+        <v>304</v>
+      </c>
+      <c r="L72" t="s">
+        <v>327</v>
+      </c>
+      <c r="M72" t="s">
+        <v>306</v>
+      </c>
+      <c r="N72" t="s">
+        <v>307</v>
+      </c>
+      <c r="O72" t="s">
+        <v>308</v>
+      </c>
+      <c r="P72" t="s">
         <v>328</v>
-      </c>
-      <c r="I72" t="s">
-        <v>315</v>
-      </c>
-      <c r="J72" t="s">
-        <v>302</v>
-      </c>
-      <c r="K72" t="s">
-        <v>329</v>
-      </c>
-      <c r="L72" t="s">
-        <v>330</v>
-      </c>
-      <c r="M72" t="s">
-        <v>331</v>
-      </c>
-      <c r="N72" t="s">
-        <v>332</v>
-      </c>
-      <c r="O72" t="s">
-        <v>333</v>
-      </c>
-      <c r="P72" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="73" spans="2:16">
       <c r="B73" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C73" t="s">
         <v>16</v>
@@ -4597,83 +4623,86 @@
         <v>18</v>
       </c>
       <c r="F73">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G73" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="H73" t="s">
-        <v>336</v>
+        <v>262</v>
       </c>
       <c r="I73" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J73" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K73" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L73" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M73" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N73" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O73" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="74" spans="2:16">
       <c r="B74" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C74" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D74" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="E74" t="s">
         <v>18</v>
       </c>
       <c r="F74">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G74" t="s">
         <v>28</v>
       </c>
       <c r="H74" t="s">
-        <v>338</v>
+        <v>37</v>
       </c>
       <c r="I74" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="J74" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="K74" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L74" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M74" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N74" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="O74" t="s">
-        <v>307</v>
+        <v>333</v>
+      </c>
+      <c r="P74" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="75" spans="2:16">
       <c r="B75" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C75" t="s">
         <v>16</v>
@@ -4685,86 +4714,77 @@
         <v>18</v>
       </c>
       <c r="F75">
-        <v>35</v>
-      </c>
-      <c r="G75" t="s">
-        <v>28</v>
-      </c>
-      <c r="H75" t="s">
-        <v>341</v>
+        <v>25</v>
       </c>
       <c r="I75" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="J75" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K75" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L75" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M75" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N75" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="O75" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="76" spans="2:16">
       <c r="B76" t="s">
+        <v>336</v>
+      </c>
+      <c r="C76" t="s">
+        <v>141</v>
+      </c>
+      <c r="D76" t="s">
+        <v>337</v>
+      </c>
+      <c r="E76" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76">
+        <v>31</v>
+      </c>
+      <c r="G76" t="s">
+        <v>19</v>
+      </c>
+      <c r="H76" t="s">
+        <v>338</v>
+      </c>
+      <c r="I76" t="s">
+        <v>339</v>
+      </c>
+      <c r="J76" t="s">
+        <v>340</v>
+      </c>
+      <c r="K76" t="s">
+        <v>341</v>
+      </c>
+      <c r="L76" t="s">
+        <v>342</v>
+      </c>
+      <c r="M76" t="s">
+        <v>343</v>
+      </c>
+      <c r="N76" t="s">
         <v>344</v>
       </c>
-      <c r="C76" t="s">
-        <v>16</v>
-      </c>
-      <c r="D76" t="s">
-        <v>17</v>
-      </c>
-      <c r="E76" t="s">
-        <v>18</v>
-      </c>
-      <c r="F76">
-        <v>35</v>
-      </c>
-      <c r="G76" t="s">
-        <v>28</v>
-      </c>
-      <c r="H76" t="s">
+      <c r="O76" t="s">
         <v>345</v>
-      </c>
-      <c r="I76" t="s">
-        <v>342</v>
-      </c>
-      <c r="J76" t="s">
-        <v>302</v>
-      </c>
-      <c r="K76" t="s">
-        <v>303</v>
-      </c>
-      <c r="L76" t="s">
-        <v>304</v>
-      </c>
-      <c r="M76" t="s">
-        <v>305</v>
-      </c>
-      <c r="N76" t="s">
-        <v>305</v>
-      </c>
-      <c r="O76" t="s">
-        <v>343</v>
-      </c>
-      <c r="P76" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="77" spans="2:16">
       <c r="B77" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C77" t="s">
         <v>16</v>
@@ -4776,28 +4796,34 @@
         <v>18</v>
       </c>
       <c r="F77">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="G77" t="s">
+        <v>52</v>
+      </c>
+      <c r="H77" t="s">
+        <v>347</v>
       </c>
       <c r="I77" t="s">
         <v>348</v>
       </c>
       <c r="J77" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K77" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L77" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M77" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N77" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="O77" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="78" spans="2:16">
@@ -4814,28 +4840,28 @@
         <v>18</v>
       </c>
       <c r="F78">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I78" t="s">
         <v>348</v>
       </c>
       <c r="J78" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K78" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L78" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M78" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N78" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="O78" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="79" spans="2:16">
@@ -4852,33 +4878,42 @@
         <v>18</v>
       </c>
       <c r="F79">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="G79" t="s">
+        <v>28</v>
+      </c>
+      <c r="H79" t="s">
+        <v>351</v>
       </c>
       <c r="I79" t="s">
         <v>348</v>
       </c>
       <c r="J79" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K79" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L79" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M79" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N79" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="O79" t="s">
-        <v>343</v>
+        <v>333</v>
+      </c>
+      <c r="P79" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="80" spans="2:16">
       <c r="B80" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C80" t="s">
         <v>16</v>
@@ -4890,33 +4925,36 @@
         <v>18</v>
       </c>
       <c r="F80">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I80" t="s">
         <v>348</v>
       </c>
       <c r="J80" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K80" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L80" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M80" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N80" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="O80" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="81" spans="2:15">
+        <v>333</v>
+      </c>
+      <c r="P80" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="81" spans="2:16">
       <c r="B81" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C81" t="s">
         <v>43</v>
@@ -4928,116 +4966,216 @@
         <v>18</v>
       </c>
       <c r="F81">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="G81" t="s">
+        <v>19</v>
+      </c>
+      <c r="H81" t="s">
+        <v>230</v>
       </c>
       <c r="I81" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="J81" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="K81" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L81" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M81" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="N81" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="O81" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="82" spans="2:15">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="82" spans="2:16">
       <c r="B82" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C82" t="s">
-        <v>232</v>
+        <v>16</v>
       </c>
       <c r="D82" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="E82" t="s">
         <v>18</v>
       </c>
       <c r="F82">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="G82" t="s">
         <v>28</v>
       </c>
       <c r="H82" t="s">
-        <v>37</v>
+        <v>364</v>
       </c>
       <c r="I82" t="s">
-        <v>360</v>
+        <v>316</v>
       </c>
       <c r="J82" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="K82" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="L82" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="M82" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="N82" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="O82" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="83" spans="2:15">
+        <v>370</v>
+      </c>
+      <c r="P82" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="83" spans="2:16">
       <c r="B83" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C83" t="s">
-        <v>232</v>
+        <v>16</v>
       </c>
       <c r="D83" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="E83" t="s">
         <v>18</v>
       </c>
       <c r="F83">
-        <v>34</v>
-      </c>
-      <c r="G83" t="s">
+        <v>26</v>
+      </c>
+      <c r="I83" t="s">
+        <v>373</v>
+      </c>
+      <c r="J83" t="s">
+        <v>303</v>
+      </c>
+      <c r="K83" t="s">
+        <v>304</v>
+      </c>
+      <c r="L83" t="s">
+        <v>305</v>
+      </c>
+      <c r="M83" t="s">
+        <v>306</v>
+      </c>
+      <c r="N83" t="s">
+        <v>374</v>
+      </c>
+      <c r="O83" t="s">
+        <v>375</v>
+      </c>
+      <c r="P83" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="84" spans="2:16">
+      <c r="B84" t="s">
+        <v>377</v>
+      </c>
+      <c r="C84" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" t="s">
+        <v>18</v>
+      </c>
+      <c r="F84">
+        <v>26</v>
+      </c>
+      <c r="G84" t="s">
         <v>19</v>
       </c>
-      <c r="H83" t="s">
-        <v>81</v>
-      </c>
-      <c r="I83" t="s">
-        <v>367</v>
-      </c>
-      <c r="J83" t="s">
-        <v>354</v>
-      </c>
-      <c r="K83" t="s">
-        <v>355</v>
-      </c>
-      <c r="L83" t="s">
-        <v>356</v>
-      </c>
-      <c r="M83" t="s">
-        <v>357</v>
-      </c>
-      <c r="N83" t="s">
-        <v>368</v>
-      </c>
-      <c r="O83" t="s">
-        <v>369</v>
+      <c r="H84" t="s">
+        <v>338</v>
+      </c>
+      <c r="I84" t="s">
+        <v>373</v>
+      </c>
+      <c r="J84" t="s">
+        <v>303</v>
+      </c>
+      <c r="K84" t="s">
+        <v>304</v>
+      </c>
+      <c r="L84" t="s">
+        <v>305</v>
+      </c>
+      <c r="M84" t="s">
+        <v>306</v>
+      </c>
+      <c r="N84" t="s">
+        <v>374</v>
+      </c>
+      <c r="O84" t="s">
+        <v>375</v>
+      </c>
+      <c r="P84" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="85" spans="2:16">
+      <c r="B85" t="s">
+        <v>379</v>
+      </c>
+      <c r="C85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85" t="s">
+        <v>18</v>
+      </c>
+      <c r="F85">
+        <v>26</v>
+      </c>
+      <c r="G85" t="s">
+        <v>52</v>
+      </c>
+      <c r="H85" t="s">
+        <v>380</v>
+      </c>
+      <c r="I85" t="s">
+        <v>373</v>
+      </c>
+      <c r="J85" t="s">
+        <v>303</v>
+      </c>
+      <c r="K85" t="s">
+        <v>304</v>
+      </c>
+      <c r="L85" t="s">
+        <v>305</v>
+      </c>
+      <c r="M85" t="s">
+        <v>306</v>
+      </c>
+      <c r="N85" t="s">
+        <v>374</v>
+      </c>
+      <c r="O85" t="s">
+        <v>375</v>
+      </c>
+      <c r="P85" t="s">
+        <v>381</v>
       </c>
     </row>
   </sheetData>

--- a/static/files/fixed_assets.xlsx
+++ b/static/files/fixed_assets.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="395">
   <si>
     <t>编号</t>
   </si>
@@ -1160,6 +1160,45 @@
   </si>
   <si>
     <t>D63</t>
+  </si>
+  <si>
+    <t>HUBFAA084</t>
+  </si>
+  <si>
+    <t>戴尔（DELL）R730 服务器</t>
+  </si>
+  <si>
+    <t>2016/12/27</t>
+  </si>
+  <si>
+    <t>32500.00</t>
+  </si>
+  <si>
+    <t>27777.78</t>
+  </si>
+  <si>
+    <t>1388.89</t>
+  </si>
+  <si>
+    <t>733.02</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>广州机房</t>
+  </si>
+  <si>
+    <t>HUBFAA085</t>
+  </si>
+  <si>
+    <t>HUBFAA086</t>
+  </si>
+  <si>
+    <t>HUBFAA087</t>
+  </si>
+  <si>
+    <t>HUBFAA088</t>
   </si>
 </sst>
 </file>
@@ -1491,7 +1530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:P85"/>
+  <dimension ref="B2:P90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5178,6 +5217,241 @@
         <v>381</v>
       </c>
     </row>
+    <row r="86" spans="2:16">
+      <c r="B86" t="s">
+        <v>382</v>
+      </c>
+      <c r="C86" t="s">
+        <v>233</v>
+      </c>
+      <c r="D86" t="s">
+        <v>383</v>
+      </c>
+      <c r="E86" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86">
+        <v>36</v>
+      </c>
+      <c r="G86" t="s">
+        <v>28</v>
+      </c>
+      <c r="H86" t="s">
+        <v>37</v>
+      </c>
+      <c r="I86" t="s">
+        <v>384</v>
+      </c>
+      <c r="J86" t="s">
+        <v>385</v>
+      </c>
+      <c r="K86" t="s">
+        <v>386</v>
+      </c>
+      <c r="L86" t="s">
+        <v>387</v>
+      </c>
+      <c r="M86" t="s">
+        <v>388</v>
+      </c>
+      <c r="N86" t="s">
+        <v>389</v>
+      </c>
+      <c r="O86" t="s">
+        <v>386</v>
+      </c>
+      <c r="P86" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="87" spans="2:16">
+      <c r="B87" t="s">
+        <v>391</v>
+      </c>
+      <c r="C87" t="s">
+        <v>233</v>
+      </c>
+      <c r="D87" t="s">
+        <v>383</v>
+      </c>
+      <c r="E87" t="s">
+        <v>18</v>
+      </c>
+      <c r="F87">
+        <v>36</v>
+      </c>
+      <c r="G87" t="s">
+        <v>28</v>
+      </c>
+      <c r="H87" t="s">
+        <v>37</v>
+      </c>
+      <c r="I87" t="s">
+        <v>384</v>
+      </c>
+      <c r="J87" t="s">
+        <v>385</v>
+      </c>
+      <c r="K87" t="s">
+        <v>386</v>
+      </c>
+      <c r="L87" t="s">
+        <v>387</v>
+      </c>
+      <c r="M87" t="s">
+        <v>388</v>
+      </c>
+      <c r="N87" t="s">
+        <v>389</v>
+      </c>
+      <c r="O87" t="s">
+        <v>386</v>
+      </c>
+      <c r="P87" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="88" spans="2:16">
+      <c r="B88" t="s">
+        <v>392</v>
+      </c>
+      <c r="C88" t="s">
+        <v>233</v>
+      </c>
+      <c r="D88" t="s">
+        <v>383</v>
+      </c>
+      <c r="E88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F88">
+        <v>36</v>
+      </c>
+      <c r="G88" t="s">
+        <v>28</v>
+      </c>
+      <c r="H88" t="s">
+        <v>37</v>
+      </c>
+      <c r="I88" t="s">
+        <v>384</v>
+      </c>
+      <c r="J88" t="s">
+        <v>385</v>
+      </c>
+      <c r="K88" t="s">
+        <v>386</v>
+      </c>
+      <c r="L88" t="s">
+        <v>387</v>
+      </c>
+      <c r="M88" t="s">
+        <v>388</v>
+      </c>
+      <c r="N88" t="s">
+        <v>389</v>
+      </c>
+      <c r="O88" t="s">
+        <v>386</v>
+      </c>
+      <c r="P88" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="89" spans="2:16">
+      <c r="B89" t="s">
+        <v>393</v>
+      </c>
+      <c r="C89" t="s">
+        <v>233</v>
+      </c>
+      <c r="D89" t="s">
+        <v>383</v>
+      </c>
+      <c r="E89" t="s">
+        <v>18</v>
+      </c>
+      <c r="F89">
+        <v>36</v>
+      </c>
+      <c r="G89" t="s">
+        <v>28</v>
+      </c>
+      <c r="H89" t="s">
+        <v>37</v>
+      </c>
+      <c r="I89" t="s">
+        <v>384</v>
+      </c>
+      <c r="J89" t="s">
+        <v>385</v>
+      </c>
+      <c r="K89" t="s">
+        <v>386</v>
+      </c>
+      <c r="L89" t="s">
+        <v>387</v>
+      </c>
+      <c r="M89" t="s">
+        <v>388</v>
+      </c>
+      <c r="N89" t="s">
+        <v>389</v>
+      </c>
+      <c r="O89" t="s">
+        <v>386</v>
+      </c>
+      <c r="P89" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="90" spans="2:16">
+      <c r="B90" t="s">
+        <v>394</v>
+      </c>
+      <c r="C90" t="s">
+        <v>233</v>
+      </c>
+      <c r="D90" t="s">
+        <v>383</v>
+      </c>
+      <c r="E90" t="s">
+        <v>18</v>
+      </c>
+      <c r="F90">
+        <v>36</v>
+      </c>
+      <c r="G90" t="s">
+        <v>28</v>
+      </c>
+      <c r="H90" t="s">
+        <v>37</v>
+      </c>
+      <c r="I90" t="s">
+        <v>384</v>
+      </c>
+      <c r="J90" t="s">
+        <v>385</v>
+      </c>
+      <c r="K90" t="s">
+        <v>386</v>
+      </c>
+      <c r="L90" t="s">
+        <v>387</v>
+      </c>
+      <c r="M90" t="s">
+        <v>388</v>
+      </c>
+      <c r="N90" t="s">
+        <v>389</v>
+      </c>
+      <c r="O90" t="s">
+        <v>386</v>
+      </c>
+      <c r="P90" t="s">
+        <v>390</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/static/files/fixed_assets.xlsx
+++ b/static/files/fixed_assets.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="414">
   <si>
     <t>编号</t>
   </si>
@@ -1199,6 +1199,63 @@
   </si>
   <si>
     <t>HUBFAA088</t>
+  </si>
+  <si>
+    <t>HUBFAA089</t>
+  </si>
+  <si>
+    <t>戴尔（DELL）R230 服务器</t>
+  </si>
+  <si>
+    <t>6800.00</t>
+  </si>
+  <si>
+    <t>5811.97</t>
+  </si>
+  <si>
+    <t>290.60</t>
+  </si>
+  <si>
+    <t>153.37</t>
+  </si>
+  <si>
+    <t>HUBFAA090</t>
+  </si>
+  <si>
+    <t>华为S6720S-26Q-EI-24S组合配置&amp;配件</t>
+  </si>
+  <si>
+    <t>26200.00</t>
+  </si>
+  <si>
+    <t>22393.17</t>
+  </si>
+  <si>
+    <t>1119.66</t>
+  </si>
+  <si>
+    <t>590.93</t>
+  </si>
+  <si>
+    <t>HUBFAA091</t>
+  </si>
+  <si>
+    <t>防火墙</t>
+  </si>
+  <si>
+    <t>华为USG6370交流主机&amp;配件</t>
+  </si>
+  <si>
+    <t>24900.00</t>
+  </si>
+  <si>
+    <t>21282.05</t>
+  </si>
+  <si>
+    <t>1064.10</t>
+  </si>
+  <si>
+    <t>561.61</t>
   </si>
 </sst>
 </file>
@@ -1530,7 +1587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:P90"/>
+  <dimension ref="B2:P93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5452,6 +5509,147 @@
         <v>390</v>
       </c>
     </row>
+    <row r="91" spans="2:16">
+      <c r="B91" t="s">
+        <v>395</v>
+      </c>
+      <c r="C91" t="s">
+        <v>233</v>
+      </c>
+      <c r="D91" t="s">
+        <v>396</v>
+      </c>
+      <c r="E91" t="s">
+        <v>18</v>
+      </c>
+      <c r="F91">
+        <v>36</v>
+      </c>
+      <c r="G91" t="s">
+        <v>28</v>
+      </c>
+      <c r="H91" t="s">
+        <v>37</v>
+      </c>
+      <c r="I91" t="s">
+        <v>384</v>
+      </c>
+      <c r="J91" t="s">
+        <v>397</v>
+      </c>
+      <c r="K91" t="s">
+        <v>398</v>
+      </c>
+      <c r="L91" t="s">
+        <v>399</v>
+      </c>
+      <c r="M91" t="s">
+        <v>400</v>
+      </c>
+      <c r="N91" t="s">
+        <v>389</v>
+      </c>
+      <c r="O91" t="s">
+        <v>398</v>
+      </c>
+      <c r="P91" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="92" spans="2:16">
+      <c r="B92" t="s">
+        <v>401</v>
+      </c>
+      <c r="C92" t="s">
+        <v>250</v>
+      </c>
+      <c r="D92" t="s">
+        <v>402</v>
+      </c>
+      <c r="E92" t="s">
+        <v>18</v>
+      </c>
+      <c r="F92">
+        <v>36</v>
+      </c>
+      <c r="G92" t="s">
+        <v>28</v>
+      </c>
+      <c r="H92" t="s">
+        <v>37</v>
+      </c>
+      <c r="I92" t="s">
+        <v>384</v>
+      </c>
+      <c r="J92" t="s">
+        <v>403</v>
+      </c>
+      <c r="K92" t="s">
+        <v>404</v>
+      </c>
+      <c r="L92" t="s">
+        <v>405</v>
+      </c>
+      <c r="M92" t="s">
+        <v>406</v>
+      </c>
+      <c r="N92" t="s">
+        <v>389</v>
+      </c>
+      <c r="O92" t="s">
+        <v>404</v>
+      </c>
+      <c r="P92" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="93" spans="2:16">
+      <c r="B93" t="s">
+        <v>407</v>
+      </c>
+      <c r="C93" t="s">
+        <v>408</v>
+      </c>
+      <c r="D93" t="s">
+        <v>409</v>
+      </c>
+      <c r="E93" t="s">
+        <v>18</v>
+      </c>
+      <c r="F93">
+        <v>36</v>
+      </c>
+      <c r="G93" t="s">
+        <v>28</v>
+      </c>
+      <c r="H93" t="s">
+        <v>37</v>
+      </c>
+      <c r="I93" t="s">
+        <v>384</v>
+      </c>
+      <c r="J93" t="s">
+        <v>410</v>
+      </c>
+      <c r="K93" t="s">
+        <v>411</v>
+      </c>
+      <c r="L93" t="s">
+        <v>412</v>
+      </c>
+      <c r="M93" t="s">
+        <v>413</v>
+      </c>
+      <c r="N93" t="s">
+        <v>389</v>
+      </c>
+      <c r="O93" t="s">
+        <v>411</v>
+      </c>
+      <c r="P93" t="s">
+        <v>390</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/static/files/fixed_assets.xlsx
+++ b/static/files/fixed_assets.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="428">
   <si>
     <t>编号</t>
   </si>
@@ -91,10 +91,10 @@
     <t>184.70</t>
   </si>
   <si>
-    <t>3324.60</t>
-  </si>
-  <si>
-    <t>3674.40</t>
+    <t>3878.70</t>
+  </si>
+  <si>
+    <t>3120.30</t>
   </si>
   <si>
     <t>HUBFAA002</t>
@@ -109,7 +109,10 @@
     <t>HUBFAA003</t>
   </si>
   <si>
-    <t>D09</t>
+    <t>运营部</t>
+  </si>
+  <si>
+    <t>刘继光</t>
   </si>
   <si>
     <t>HUBFAA004</t>
@@ -163,18 +166,15 @@
     <t>110.81</t>
   </si>
   <si>
-    <t>1994.58</t>
-  </si>
-  <si>
-    <t>2204.42</t>
+    <t>2327.01</t>
+  </si>
+  <si>
+    <t>1871.99</t>
   </si>
   <si>
     <t>HUBFAA010</t>
   </si>
   <si>
-    <t>运营部</t>
-  </si>
-  <si>
     <t>黄森</t>
   </si>
   <si>
@@ -208,10 +208,10 @@
     <t>289.96</t>
   </si>
   <si>
-    <t>5219.28</t>
-  </si>
-  <si>
-    <t>5768.72</t>
+    <t>6089.16</t>
+  </si>
+  <si>
+    <t>4898.84</t>
   </si>
   <si>
     <t>HUBFAA013</t>
@@ -229,10 +229,10 @@
     <t>255.66</t>
   </si>
   <si>
-    <t>4601.88</t>
-  </si>
-  <si>
-    <t>5086.12</t>
+    <t>5368.86</t>
+  </si>
+  <si>
+    <t>4319.14</t>
   </si>
   <si>
     <t>HUBFAA014</t>
@@ -241,849 +241,870 @@
     <t>HUBFAA015</t>
   </si>
   <si>
+    <t>曾树楷</t>
+  </si>
+  <si>
+    <t>HUBFAA016</t>
+  </si>
+  <si>
+    <t>辛甜甜</t>
+  </si>
+  <si>
+    <t>HUBFAA017</t>
+  </si>
+  <si>
+    <t>4299.00</t>
+  </si>
+  <si>
+    <t>214.95</t>
+  </si>
+  <si>
+    <t>113.45</t>
+  </si>
+  <si>
+    <t>2382.45</t>
+  </si>
+  <si>
+    <t>1916.55</t>
+  </si>
+  <si>
+    <t>HUBFAA018</t>
+  </si>
+  <si>
+    <t>李苑</t>
+  </si>
+  <si>
+    <t>D59</t>
+  </si>
+  <si>
+    <t>HUBFAA019</t>
+  </si>
+  <si>
+    <t>钟卓俊</t>
+  </si>
+  <si>
+    <t>D40</t>
+  </si>
+  <si>
+    <t>HUBFAA020</t>
+  </si>
+  <si>
+    <t>27 英寸配备 Retina 5K 显示屏的 iMac</t>
+  </si>
+  <si>
+    <t>程俊</t>
+  </si>
+  <si>
+    <t>17612.00</t>
+  </si>
+  <si>
+    <t>880.60</t>
+  </si>
+  <si>
+    <t>464.76</t>
+  </si>
+  <si>
+    <t>9759.96</t>
+  </si>
+  <si>
+    <t>7852.04</t>
+  </si>
+  <si>
+    <t>HUBFAA021</t>
+  </si>
+  <si>
+    <t>显示器</t>
+  </si>
+  <si>
+    <t>戴尔（DELL）U2414H 液晶显示器</t>
+  </si>
+  <si>
+    <t>陆小峰</t>
+  </si>
+  <si>
+    <t>1899.00</t>
+  </si>
+  <si>
+    <t>94.95</t>
+  </si>
+  <si>
+    <t>50.11</t>
+  </si>
+  <si>
+    <t>1052.31</t>
+  </si>
+  <si>
+    <t>846.69</t>
+  </si>
+  <si>
+    <t>HUBFAA022</t>
+  </si>
+  <si>
+    <t>项嘉</t>
+  </si>
+  <si>
+    <t>HUBFAA023</t>
+  </si>
+  <si>
+    <t>徐建锋</t>
+  </si>
+  <si>
+    <t>HUBFAA024</t>
+  </si>
+  <si>
+    <t>HUBFAA025</t>
+  </si>
+  <si>
+    <t>ipad</t>
+  </si>
+  <si>
+    <t>iPad平板电脑 16G WiFi版金色</t>
+  </si>
+  <si>
+    <t>朱维刚</t>
+  </si>
+  <si>
+    <t>3288.00</t>
+  </si>
+  <si>
+    <t>2810.26</t>
+  </si>
+  <si>
+    <t>140.51</t>
+  </si>
+  <si>
+    <t>74.16</t>
+  </si>
+  <si>
+    <t>1557.36</t>
+  </si>
+  <si>
+    <t>1252.90</t>
+  </si>
+  <si>
+    <t>HUBFAA026</t>
+  </si>
+  <si>
+    <t>iPad平板电脑 16G WiFi版银色</t>
+  </si>
+  <si>
+    <t>3588.00</t>
+  </si>
+  <si>
+    <t>3066.67</t>
+  </si>
+  <si>
+    <t>153.33</t>
+  </si>
+  <si>
+    <t>80.93</t>
+  </si>
+  <si>
+    <t>1699.53</t>
+  </si>
+  <si>
+    <t>1367.14</t>
+  </si>
+  <si>
+    <t>HUBFAA027</t>
+  </si>
+  <si>
+    <t>3066.66</t>
+  </si>
+  <si>
+    <t>1367.13</t>
+  </si>
+  <si>
+    <t>HUBFAA028</t>
+  </si>
+  <si>
+    <t>同方超翔 开票机机箱</t>
+  </si>
+  <si>
+    <t>2015/06/12</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>2991.45</t>
+  </si>
+  <si>
+    <t>149.57</t>
+  </si>
+  <si>
+    <t>78.94</t>
+  </si>
+  <si>
+    <t>1657.74</t>
+  </si>
+  <si>
+    <t>1333.71</t>
+  </si>
+  <si>
+    <t>D05</t>
+  </si>
+  <si>
+    <t>HUBFAA029</t>
+  </si>
+  <si>
+    <t>打印机</t>
+  </si>
+  <si>
+    <t>爱心诺 SK-860打印机</t>
+  </si>
+  <si>
+    <t>2600.00</t>
+  </si>
+  <si>
+    <t>2222.22</t>
+  </si>
+  <si>
+    <t>111.11</t>
+  </si>
+  <si>
+    <t>58.64</t>
+  </si>
+  <si>
+    <t>1231.44</t>
+  </si>
+  <si>
+    <t>990.78</t>
+  </si>
+  <si>
+    <t>HUBFAA030</t>
+  </si>
+  <si>
+    <t>惠普（hp）MFP M277dw 彩色打印机</t>
+  </si>
+  <si>
+    <t>4999.00</t>
+  </si>
+  <si>
+    <t>4272.65</t>
+  </si>
+  <si>
+    <t>213.63</t>
+  </si>
+  <si>
+    <t>112.75</t>
+  </si>
+  <si>
+    <t>2367.75</t>
+  </si>
+  <si>
+    <t>1904.90</t>
+  </si>
+  <si>
+    <t>HUBFAA031</t>
+  </si>
+  <si>
+    <t>苏曦</t>
+  </si>
+  <si>
+    <t>16508.00</t>
+  </si>
+  <si>
+    <t>14109.40</t>
+  </si>
+  <si>
+    <t>705.47</t>
+  </si>
+  <si>
+    <t>372.33</t>
+  </si>
+  <si>
+    <t>7818.93</t>
+  </si>
+  <si>
+    <t>6290.47</t>
+  </si>
+  <si>
+    <t>HUBFAA032</t>
+  </si>
+  <si>
+    <t>张晋</t>
+  </si>
+  <si>
+    <t>2015/06/17</t>
+  </si>
+  <si>
+    <t>5982.05</t>
+  </si>
+  <si>
+    <t>299.10</t>
+  </si>
+  <si>
+    <t>157.86</t>
+  </si>
+  <si>
+    <t>3315.06</t>
+  </si>
+  <si>
+    <t>2666.99</t>
+  </si>
+  <si>
+    <t>HUBFAA033</t>
+  </si>
+  <si>
+    <t>徐建峰</t>
+  </si>
+  <si>
+    <t>HUBFAA034</t>
+  </si>
+  <si>
+    <t>顾颖旻玉</t>
+  </si>
+  <si>
+    <t>HUBFAA035</t>
+  </si>
+  <si>
+    <t>杨超</t>
+  </si>
+  <si>
+    <t>HUBFAA036</t>
+  </si>
+  <si>
+    <t>HUBFAA037</t>
+  </si>
+  <si>
+    <t>郑达凯</t>
+  </si>
+  <si>
+    <t>D18</t>
+  </si>
+  <si>
+    <t>HUBFAA038</t>
+  </si>
+  <si>
+    <t>D38</t>
+  </si>
+  <si>
+    <t>HUBFAA039</t>
+  </si>
+  <si>
+    <t>江河冰</t>
+  </si>
+  <si>
+    <t>5982.07</t>
+  </si>
+  <si>
+    <t>2667.01</t>
+  </si>
+  <si>
+    <t>HUBFAA040</t>
+  </si>
+  <si>
+    <t>朱震</t>
+  </si>
+  <si>
+    <t>2015/07/13</t>
+  </si>
+  <si>
+    <t>6900.00</t>
+  </si>
+  <si>
+    <t>5897.43</t>
+  </si>
+  <si>
+    <t>294.87</t>
+  </si>
+  <si>
+    <t>155.63</t>
+  </si>
+  <si>
+    <t>3112.60</t>
+  </si>
+  <si>
+    <t>2784.83</t>
+  </si>
+  <si>
+    <t>HUBFAA041</t>
+  </si>
+  <si>
+    <t>袁佳明</t>
+  </si>
+  <si>
+    <t>HUBFAA042</t>
+  </si>
+  <si>
+    <t>王若男</t>
+  </si>
+  <si>
+    <t>HUBFAA043</t>
+  </si>
+  <si>
+    <t>陈世豪</t>
+  </si>
+  <si>
+    <t>5897.44</t>
+  </si>
+  <si>
+    <t>2784.84</t>
+  </si>
+  <si>
+    <t>HUBFAA044</t>
+  </si>
+  <si>
+    <t>陈娴静</t>
+  </si>
+  <si>
+    <t>HUBFAA045</t>
+  </si>
+  <si>
+    <t>李凡</t>
+  </si>
+  <si>
+    <t>HUBFAA046</t>
+  </si>
+  <si>
+    <t>石鸣</t>
+  </si>
+  <si>
+    <t>D54</t>
+  </si>
+  <si>
+    <t>HUBFAA047</t>
+  </si>
+  <si>
+    <t>金升起</t>
+  </si>
+  <si>
+    <t>D19</t>
+  </si>
+  <si>
+    <t>HUBFAA048</t>
+  </si>
+  <si>
+    <t>郭茁</t>
+  </si>
+  <si>
+    <t>HUBFAA049</t>
+  </si>
+  <si>
+    <t>丁正军</t>
+  </si>
+  <si>
+    <t>HUBFAA050</t>
+  </si>
+  <si>
+    <t>1799.00</t>
+  </si>
+  <si>
+    <t>1537.60</t>
+  </si>
+  <si>
+    <t>76.88</t>
+  </si>
+  <si>
+    <t>40.58</t>
+  </si>
+  <si>
+    <t>811.60</t>
+  </si>
+  <si>
+    <t>726.00</t>
+  </si>
+  <si>
+    <t>HUBFAA051</t>
+  </si>
+  <si>
+    <t>HUBFAA052</t>
+  </si>
+  <si>
+    <t>HUBFAA053</t>
+  </si>
+  <si>
+    <t>HUBFAA054</t>
+  </si>
+  <si>
+    <t>米南强</t>
+  </si>
+  <si>
+    <t>HUBFAA055</t>
+  </si>
+  <si>
+    <t>服务器</t>
+  </si>
+  <si>
+    <t>戴尔（DELL）R620 服务器</t>
+  </si>
+  <si>
+    <t>2015/07/21</t>
+  </si>
+  <si>
+    <t>26500.00</t>
+  </si>
+  <si>
+    <t>22649.57</t>
+  </si>
+  <si>
+    <t>1132.48</t>
+  </si>
+  <si>
+    <t>597.70</t>
+  </si>
+  <si>
+    <t>11954.00</t>
+  </si>
+  <si>
+    <t>10695.57</t>
+  </si>
+  <si>
+    <t>HUBFAA056</t>
+  </si>
+  <si>
+    <t>2015/08/04</t>
+  </si>
+  <si>
+    <t>8280.34</t>
+  </si>
+  <si>
+    <t>414.02</t>
+  </si>
+  <si>
+    <t>218.51</t>
+  </si>
+  <si>
+    <t>4151.69</t>
+  </si>
+  <si>
+    <t>4128.65</t>
+  </si>
+  <si>
+    <t>HUBFAA057</t>
+  </si>
+  <si>
+    <t>交换机</t>
+  </si>
+  <si>
+    <t>机房网络产品（交换机&amp;UPS）</t>
+  </si>
+  <si>
+    <t>2015/09/24</t>
+  </si>
+  <si>
+    <t>91740.00</t>
+  </si>
+  <si>
+    <t>78410.24</t>
+  </si>
+  <si>
+    <t>3920.51</t>
+  </si>
+  <si>
+    <t>2069.16</t>
+  </si>
+  <si>
+    <t>35175.72</t>
+  </si>
+  <si>
+    <t>43234.52</t>
+  </si>
+  <si>
+    <t>HUBFAA058</t>
+  </si>
+  <si>
+    <t>电视机</t>
+  </si>
+  <si>
+    <t>三星无缝拼接电视</t>
+  </si>
+  <si>
+    <t>刘亚玲</t>
+  </si>
+  <si>
+    <t>2015/09/15</t>
+  </si>
+  <si>
+    <t>20412.00</t>
+  </si>
+  <si>
+    <t>1020.60</t>
+  </si>
+  <si>
+    <t>538.65</t>
+  </si>
+  <si>
+    <t>9695.70</t>
+  </si>
+  <si>
+    <t>10716.30</t>
+  </si>
+  <si>
+    <t>HUBFAA059</t>
+  </si>
+  <si>
+    <t>投影仪</t>
+  </si>
+  <si>
+    <t>明基投影仪</t>
+  </si>
+  <si>
+    <t>2015/09/11</t>
+  </si>
+  <si>
+    <t>6656.00</t>
+  </si>
+  <si>
+    <t>5688.88</t>
+  </si>
+  <si>
+    <t>284.44</t>
+  </si>
+  <si>
+    <t>150.12</t>
+  </si>
+  <si>
+    <t>2702.16</t>
+  </si>
+  <si>
+    <t>2986.72</t>
+  </si>
+  <si>
+    <t>HUBFAA060</t>
+  </si>
+  <si>
+    <t>2015/10/14</t>
+  </si>
+  <si>
+    <t>48000.00</t>
+  </si>
+  <si>
+    <t>41025.64</t>
+  </si>
+  <si>
+    <t>2051.28</t>
+  </si>
+  <si>
+    <t>1082.62</t>
+  </si>
+  <si>
+    <t>18404.54</t>
+  </si>
+  <si>
+    <t>22621.10</t>
+  </si>
+  <si>
+    <t>HUBFAA061</t>
+  </si>
+  <si>
+    <t>2015/10/20</t>
+  </si>
+  <si>
+    <t>3714.67</t>
+  </si>
+  <si>
+    <t>4565.67</t>
+  </si>
+  <si>
+    <t>HUBFAA062</t>
+  </si>
+  <si>
+    <t>顾箴</t>
+  </si>
+  <si>
+    <t>2015/11/09</t>
+  </si>
+  <si>
+    <t>14988.00</t>
+  </si>
+  <si>
+    <t>12810.26</t>
+  </si>
+  <si>
+    <t>640.51</t>
+  </si>
+  <si>
+    <t>338.05</t>
+  </si>
+  <si>
+    <t>5408.80</t>
+  </si>
+  <si>
+    <t>7401.46</t>
+  </si>
+  <si>
+    <t>HUBFAA063</t>
+  </si>
+  <si>
+    <t>2015/12/22</t>
+  </si>
+  <si>
+    <t>6850.00</t>
+  </si>
+  <si>
+    <t>5854.70</t>
+  </si>
+  <si>
+    <t>292.74</t>
+  </si>
+  <si>
+    <t>154.50</t>
+  </si>
+  <si>
+    <t>2317.50</t>
+  </si>
+  <si>
+    <t>3537.20</t>
+  </si>
+  <si>
+    <t>D05-空</t>
+  </si>
+  <si>
+    <t>HUBFAA064</t>
+  </si>
+  <si>
+    <t>路以明</t>
+  </si>
+  <si>
+    <t>HUBFAA065</t>
+  </si>
+  <si>
     <t>成凯娟</t>
   </si>
   <si>
-    <t>HUBFAA016</t>
-  </si>
-  <si>
-    <t>卜晓斌</t>
-  </si>
-  <si>
-    <t>HUBFAA017</t>
-  </si>
-  <si>
-    <t>4299.00</t>
-  </si>
-  <si>
-    <t>214.95</t>
-  </si>
-  <si>
-    <t>113.45</t>
-  </si>
-  <si>
-    <t>2042.10</t>
-  </si>
-  <si>
-    <t>2256.90</t>
-  </si>
-  <si>
-    <t>大会议室</t>
-  </si>
-  <si>
-    <t>HUBFAA018</t>
-  </si>
-  <si>
-    <t>HUBFAA019</t>
-  </si>
-  <si>
-    <t>D13</t>
-  </si>
-  <si>
-    <t>HUBFAA020</t>
-  </si>
-  <si>
-    <t>27 英寸配备 Retina 5K 显示屏的 iMac</t>
-  </si>
-  <si>
-    <t>程俊</t>
-  </si>
-  <si>
-    <t>17612.00</t>
-  </si>
-  <si>
-    <t>880.60</t>
-  </si>
-  <si>
-    <t>464.76</t>
-  </si>
-  <si>
-    <t>8365.68</t>
-  </si>
-  <si>
-    <t>9246.32</t>
-  </si>
-  <si>
-    <t>HUBFAA021</t>
-  </si>
-  <si>
-    <t>显示器</t>
-  </si>
-  <si>
-    <t>戴尔（DELL）U2414H 液晶显示器</t>
-  </si>
-  <si>
-    <t>陆小峰</t>
-  </si>
-  <si>
-    <t>1899.00</t>
-  </si>
-  <si>
-    <t>94.95</t>
-  </si>
-  <si>
-    <t>50.11</t>
-  </si>
-  <si>
-    <t>901.98</t>
-  </si>
-  <si>
-    <t>997.02</t>
-  </si>
-  <si>
-    <t>HUBFAA022</t>
-  </si>
-  <si>
-    <t>项嘉</t>
-  </si>
-  <si>
-    <t>HUBFAA023</t>
-  </si>
-  <si>
-    <t>徐建锋</t>
-  </si>
-  <si>
-    <t>HUBFAA024</t>
-  </si>
-  <si>
-    <t>HUBFAA025</t>
-  </si>
-  <si>
-    <t>ipad</t>
-  </si>
-  <si>
-    <t>iPad平板电脑 16G WiFi版金色</t>
-  </si>
-  <si>
-    <t>朱维刚</t>
-  </si>
-  <si>
-    <t>3288.00</t>
-  </si>
-  <si>
-    <t>2810.26</t>
-  </si>
-  <si>
-    <t>140.51</t>
-  </si>
-  <si>
-    <t>74.16</t>
-  </si>
-  <si>
-    <t>1334.88</t>
-  </si>
-  <si>
-    <t>1475.38</t>
-  </si>
-  <si>
-    <t>HUBFAA026</t>
-  </si>
-  <si>
-    <t>iPad平板电脑 16G WiFi版银色</t>
-  </si>
-  <si>
-    <t>3588.00</t>
-  </si>
-  <si>
-    <t>3066.67</t>
-  </si>
-  <si>
-    <t>153.33</t>
-  </si>
-  <si>
-    <t>80.93</t>
-  </si>
-  <si>
-    <t>1456.74</t>
-  </si>
-  <si>
-    <t>1609.93</t>
-  </si>
-  <si>
-    <t>HUBFAA027</t>
-  </si>
-  <si>
-    <t>3066.66</t>
-  </si>
-  <si>
-    <t>1609.92</t>
-  </si>
-  <si>
-    <t>HUBFAA028</t>
-  </si>
-  <si>
-    <t>同方超翔 开票机机箱</t>
-  </si>
-  <si>
-    <t>2015/06/12</t>
-  </si>
-  <si>
-    <t>3500.00</t>
-  </si>
-  <si>
-    <t>2991.45</t>
-  </si>
-  <si>
-    <t>149.57</t>
-  </si>
-  <si>
-    <t>78.94</t>
-  </si>
-  <si>
-    <t>1420.92</t>
-  </si>
-  <si>
-    <t>1570.53</t>
-  </si>
-  <si>
-    <t>HUBFAA029</t>
-  </si>
-  <si>
-    <t>打印机</t>
-  </si>
-  <si>
-    <t>爱心诺 SK-860打印机</t>
-  </si>
-  <si>
-    <t>2600.00</t>
-  </si>
-  <si>
-    <t>2222.22</t>
-  </si>
-  <si>
-    <t>111.11</t>
-  </si>
-  <si>
-    <t>58.64</t>
-  </si>
-  <si>
-    <t>1055.52</t>
-  </si>
-  <si>
-    <t>1166.70</t>
-  </si>
-  <si>
-    <t>HUBFAA030</t>
-  </si>
-  <si>
-    <t>惠普（hp）MFP M277dw 彩色打印机</t>
-  </si>
-  <si>
-    <t>4999.00</t>
-  </si>
-  <si>
-    <t>4272.65</t>
-  </si>
-  <si>
-    <t>213.63</t>
-  </si>
-  <si>
-    <t>112.75</t>
-  </si>
-  <si>
-    <t>2029.50</t>
-  </si>
-  <si>
-    <t>2243.15</t>
-  </si>
-  <si>
-    <t>HUBFAA031</t>
-  </si>
-  <si>
-    <t>苏曦</t>
-  </si>
-  <si>
-    <t>16508.00</t>
-  </si>
-  <si>
-    <t>14109.40</t>
-  </si>
-  <si>
-    <t>705.47</t>
-  </si>
-  <si>
-    <t>372.33</t>
-  </si>
-  <si>
-    <t>6701.94</t>
-  </si>
-  <si>
-    <t>7407.46</t>
-  </si>
-  <si>
-    <t>HUBFAA032</t>
-  </si>
-  <si>
-    <t>张晋</t>
-  </si>
-  <si>
-    <t>2015/06/17</t>
-  </si>
-  <si>
-    <t>5982.05</t>
-  </si>
-  <si>
-    <t>299.10</t>
-  </si>
-  <si>
-    <t>157.86</t>
-  </si>
-  <si>
-    <t>2841.48</t>
-  </si>
-  <si>
-    <t>3140.57</t>
-  </si>
-  <si>
-    <t>HUBFAA033</t>
-  </si>
-  <si>
-    <t>徐建峰</t>
-  </si>
-  <si>
-    <t>HUBFAA034</t>
-  </si>
-  <si>
-    <t>顾颖旻玉</t>
-  </si>
-  <si>
-    <t>HUBFAA035</t>
-  </si>
-  <si>
-    <t>尹美力</t>
-  </si>
-  <si>
-    <t>HUBFAA036</t>
-  </si>
-  <si>
-    <t>HUBFAA037</t>
-  </si>
-  <si>
-    <t>郑达凯</t>
-  </si>
-  <si>
-    <t>D18</t>
-  </si>
-  <si>
-    <t>HUBFAA038</t>
-  </si>
-  <si>
-    <t>王凤一</t>
-  </si>
-  <si>
-    <t>D24</t>
-  </si>
-  <si>
-    <t>HUBFAA039</t>
-  </si>
-  <si>
-    <t>江河冰</t>
-  </si>
-  <si>
-    <t>5982.07</t>
-  </si>
-  <si>
-    <t>3140.59</t>
-  </si>
-  <si>
-    <t>HUBFAA040</t>
-  </si>
-  <si>
-    <t>朱震</t>
-  </si>
-  <si>
-    <t>2015/07/13</t>
-  </si>
-  <si>
-    <t>6900.00</t>
-  </si>
-  <si>
-    <t>5897.43</t>
-  </si>
-  <si>
-    <t>294.87</t>
-  </si>
-  <si>
-    <t>155.63</t>
-  </si>
-  <si>
-    <t>2645.71</t>
-  </si>
-  <si>
-    <t>3251.72</t>
-  </si>
-  <si>
-    <t>HUBFAA041</t>
-  </si>
-  <si>
-    <t>袁佳明</t>
-  </si>
-  <si>
-    <t>HUBFAA042</t>
-  </si>
-  <si>
-    <t>王若男</t>
-  </si>
-  <si>
-    <t>HUBFAA043</t>
-  </si>
-  <si>
-    <t>王鹏</t>
-  </si>
-  <si>
-    <t>5897.44</t>
-  </si>
-  <si>
-    <t>3251.73</t>
-  </si>
-  <si>
-    <t>HUBFAA044</t>
-  </si>
-  <si>
-    <t>陈娴静</t>
-  </si>
-  <si>
-    <t>HUBFAA045</t>
-  </si>
-  <si>
-    <t>王园卉</t>
-  </si>
-  <si>
-    <t>HUBFAA046</t>
-  </si>
-  <si>
-    <t>D54</t>
-  </si>
-  <si>
-    <t>HUBFAA047</t>
-  </si>
-  <si>
-    <t>刘盾</t>
-  </si>
-  <si>
-    <t>D19</t>
-  </si>
-  <si>
-    <t>HUBFAA048</t>
-  </si>
-  <si>
-    <t>郭茁</t>
-  </si>
-  <si>
-    <t>HUBFAA049</t>
-  </si>
-  <si>
-    <t>丁正军</t>
-  </si>
-  <si>
-    <t>HUBFAA050</t>
-  </si>
-  <si>
-    <t>1799.00</t>
-  </si>
-  <si>
-    <t>1537.60</t>
-  </si>
-  <si>
-    <t>76.88</t>
-  </si>
-  <si>
-    <t>40.58</t>
-  </si>
-  <si>
-    <t>689.86</t>
-  </si>
-  <si>
-    <t>847.74</t>
-  </si>
-  <si>
-    <t>HUBFAA051</t>
-  </si>
-  <si>
-    <t>HUBFAA052</t>
-  </si>
-  <si>
-    <t>HUBFAA053</t>
+    <t>HUBFAA066</t>
+  </si>
+  <si>
+    <t>HUBFAA067</t>
+  </si>
+  <si>
+    <t>杨腾飞</t>
+  </si>
+  <si>
+    <t>2015/12/24</t>
+  </si>
+  <si>
+    <t>11758.00</t>
+  </si>
+  <si>
+    <t>10049.57</t>
+  </si>
+  <si>
+    <t>502.48</t>
+  </si>
+  <si>
+    <t>265.20</t>
+  </si>
+  <si>
+    <t>3712.80</t>
+  </si>
+  <si>
+    <t>6336.77</t>
+  </si>
+  <si>
+    <t>HUBFAA068</t>
+  </si>
+  <si>
+    <t>2163.00</t>
+  </si>
+  <si>
+    <t>3691.70</t>
+  </si>
+  <si>
+    <t>HUBFAA069</t>
+  </si>
+  <si>
+    <t>孙宗妍</t>
+  </si>
+  <si>
+    <t>HUBFAA070</t>
+  </si>
+  <si>
+    <t>王世欣</t>
+  </si>
+  <si>
+    <t>282.74</t>
+  </si>
+  <si>
+    <t>D39</t>
+  </si>
+  <si>
+    <t>HUBFAA071</t>
+  </si>
+  <si>
+    <t>HUBFAA073</t>
+  </si>
+  <si>
+    <t>2016/01/04</t>
+  </si>
+  <si>
+    <t>共享打印机以及门口屏幕</t>
+  </si>
+  <si>
+    <t>HUBFAA074</t>
+  </si>
+  <si>
+    <t>林诗洋</t>
+  </si>
+  <si>
+    <t>HUBFAA083</t>
+  </si>
+  <si>
+    <t>惠普HP M427dw 黑白打印机</t>
+  </si>
+  <si>
+    <t>季琳洁</t>
+  </si>
+  <si>
+    <t>2016/07/24</t>
+  </si>
+  <si>
+    <t>3015.00</t>
+  </si>
+  <si>
+    <t>2576.92</t>
+  </si>
+  <si>
+    <t>128.85</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>544.00</t>
+  </si>
+  <si>
+    <t>2032.92</t>
+  </si>
+  <si>
+    <t>HUBFAA075</t>
+  </si>
+  <si>
+    <t>代仟伍</t>
+  </si>
+  <si>
+    <t>2016/01/05</t>
+  </si>
+  <si>
+    <t>D37</t>
+  </si>
+  <si>
+    <t>HUBFAA076</t>
+  </si>
+  <si>
+    <t>曹剑</t>
+  </si>
+  <si>
+    <t>HUBFAA077</t>
+  </si>
+  <si>
+    <t>霍之昊</t>
+  </si>
+  <si>
+    <t>D28</t>
+  </si>
+  <si>
+    <t>HUBFAA078</t>
+  </si>
+  <si>
+    <t>HUBFAA079</t>
   </si>
   <si>
     <t>李璟</t>
   </si>
   <si>
-    <t>HUBFAA054</t>
-  </si>
-  <si>
-    <t>HUBFAA055</t>
-  </si>
-  <si>
-    <t>服务器</t>
-  </si>
-  <si>
-    <t>戴尔（DELL）R620 服务器</t>
-  </si>
-  <si>
-    <t>2015/07/21</t>
-  </si>
-  <si>
-    <t>26500.00</t>
-  </si>
-  <si>
-    <t>22649.57</t>
-  </si>
-  <si>
-    <t>1132.48</t>
-  </si>
-  <si>
-    <t>597.70</t>
-  </si>
-  <si>
-    <t>10160.90</t>
-  </si>
-  <si>
-    <t>12488.67</t>
-  </si>
-  <si>
-    <t>HUBFAA056</t>
-  </si>
-  <si>
-    <t>2015/08/04</t>
-  </si>
-  <si>
-    <t>8280.34</t>
-  </si>
-  <si>
-    <t>414.02</t>
-  </si>
-  <si>
-    <t>218.51</t>
-  </si>
-  <si>
-    <t>3496.16</t>
-  </si>
-  <si>
-    <t>4784.18</t>
-  </si>
-  <si>
-    <t>HUBFAA057</t>
-  </si>
-  <si>
-    <t>交换机</t>
-  </si>
-  <si>
-    <t>机房网络产品（交换机&amp;UPS）</t>
-  </si>
-  <si>
-    <t>2015/09/24</t>
-  </si>
-  <si>
-    <t>91740.00</t>
-  </si>
-  <si>
-    <t>78410.24</t>
-  </si>
-  <si>
-    <t>3920.51</t>
-  </si>
-  <si>
-    <t>2069.16</t>
-  </si>
-  <si>
-    <t>31037.40</t>
-  </si>
-  <si>
-    <t>47372.84</t>
-  </si>
-  <si>
-    <t>HUBFAA058</t>
-  </si>
-  <si>
-    <t>电视机</t>
-  </si>
-  <si>
-    <t>三星无缝拼接电视</t>
-  </si>
-  <si>
-    <t>刘亚玲</t>
-  </si>
-  <si>
-    <t>2015/09/15</t>
-  </si>
-  <si>
-    <t>20412.00</t>
-  </si>
-  <si>
-    <t>1020.60</t>
-  </si>
-  <si>
-    <t>538.65</t>
-  </si>
-  <si>
-    <t>8079.75</t>
-  </si>
-  <si>
-    <t>12332.25</t>
-  </si>
-  <si>
-    <t>HUBFAA059</t>
-  </si>
-  <si>
-    <t>投影仪</t>
-  </si>
-  <si>
-    <t>明基投影仪</t>
-  </si>
-  <si>
-    <t>2015/09/11</t>
-  </si>
-  <si>
-    <t>6656.00</t>
-  </si>
-  <si>
-    <t>5688.88</t>
-  </si>
-  <si>
-    <t>284.44</t>
-  </si>
-  <si>
-    <t>150.12</t>
-  </si>
-  <si>
-    <t>2251.80</t>
-  </si>
-  <si>
-    <t>3437.08</t>
-  </si>
-  <si>
-    <t>HUBFAA060</t>
-  </si>
-  <si>
-    <t>2015/10/14</t>
-  </si>
-  <si>
-    <t>48000.00</t>
-  </si>
-  <si>
-    <t>41025.64</t>
-  </si>
-  <si>
-    <t>2051.28</t>
-  </si>
-  <si>
-    <t>1082.62</t>
-  </si>
-  <si>
-    <t>15156.68</t>
-  </si>
-  <si>
-    <t>25868.96</t>
-  </si>
-  <si>
-    <t>HUBFAA061</t>
-  </si>
-  <si>
-    <t>2015/10/20</t>
-  </si>
-  <si>
-    <t>3059.14</t>
-  </si>
-  <si>
-    <t>5221.20</t>
-  </si>
-  <si>
-    <t>D38</t>
-  </si>
-  <si>
-    <t>HUBFAA062</t>
-  </si>
-  <si>
-    <t>顾箴</t>
-  </si>
-  <si>
-    <t>2015/11/09</t>
-  </si>
-  <si>
-    <t>14988.00</t>
-  </si>
-  <si>
-    <t>12810.26</t>
-  </si>
-  <si>
-    <t>640.51</t>
-  </si>
-  <si>
-    <t>338.05</t>
-  </si>
-  <si>
-    <t>4394.65</t>
-  </si>
-  <si>
-    <t>8415.61</t>
-  </si>
-  <si>
-    <t>HUBFAA063</t>
-  </si>
-  <si>
-    <t>2015/12/22</t>
-  </si>
-  <si>
-    <t>6850.00</t>
-  </si>
-  <si>
-    <t>5854.70</t>
-  </si>
-  <si>
-    <t>292.74</t>
-  </si>
-  <si>
-    <t>154.50</t>
-  </si>
-  <si>
-    <t>1854.00</t>
-  </si>
-  <si>
-    <t>4000.70</t>
-  </si>
-  <si>
-    <t>D05-空</t>
-  </si>
-  <si>
-    <t>HUBFAA064</t>
-  </si>
-  <si>
-    <t>路以明</t>
-  </si>
-  <si>
-    <t>HUBFAA065</t>
-  </si>
-  <si>
-    <t>HUBFAA066</t>
-  </si>
-  <si>
-    <t>HUBFAA067</t>
-  </si>
-  <si>
-    <t>杨腾飞</t>
-  </si>
-  <si>
-    <t>2015/12/24</t>
-  </si>
-  <si>
-    <t>11758.00</t>
-  </si>
-  <si>
-    <t>10049.57</t>
-  </si>
-  <si>
-    <t>502.48</t>
-  </si>
-  <si>
-    <t>265.20</t>
-  </si>
-  <si>
-    <t>3182.40</t>
-  </si>
-  <si>
-    <t>6867.17</t>
-  </si>
-  <si>
-    <t>HUBFAA068</t>
-  </si>
-  <si>
-    <t>HUBFAA069</t>
-  </si>
-  <si>
-    <t>孙宗妍</t>
-  </si>
-  <si>
-    <t>HUBFAA070</t>
-  </si>
-  <si>
-    <t>282.74</t>
-  </si>
-  <si>
-    <t>顾超使用显示器  主机在 D39</t>
-  </si>
-  <si>
-    <t>HUBFAA071</t>
-  </si>
-  <si>
-    <t>HUBFAA073</t>
-  </si>
-  <si>
-    <t>2016/01/04</t>
-  </si>
-  <si>
-    <t>1699.50</t>
-  </si>
-  <si>
-    <t>4155.20</t>
-  </si>
-  <si>
-    <t>共享打印机以及门口屏幕</t>
-  </si>
-  <si>
-    <t>HUBFAA074</t>
-  </si>
-  <si>
-    <t>HUBFAA083</t>
-  </si>
-  <si>
-    <t>惠普HP M427dw 黑白打印机</t>
-  </si>
-  <si>
-    <t>季琳洁</t>
-  </si>
-  <si>
-    <t>2016/07/24</t>
-  </si>
-  <si>
-    <t>3015.00</t>
-  </si>
-  <si>
-    <t>2576.92</t>
-  </si>
-  <si>
-    <t>128.85</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>340.00</t>
-  </si>
-  <si>
-    <t>2236.92</t>
-  </si>
-  <si>
-    <t>HUBFAA075</t>
-  </si>
-  <si>
-    <t>沈元明</t>
-  </si>
-  <si>
-    <t>2016/01/05</t>
-  </si>
-  <si>
-    <t>HUBFAA076</t>
-  </si>
-  <si>
-    <t>HUBFAA077</t>
-  </si>
-  <si>
-    <t>霍之昊</t>
-  </si>
-  <si>
-    <t>D28</t>
-  </si>
-  <si>
-    <t>HUBFAA078</t>
-  </si>
-  <si>
-    <t>主机 在 D12   显示器库存</t>
-  </si>
-  <si>
-    <t>HUBFAA079</t>
-  </si>
-  <si>
     <t>2016/01/20</t>
   </si>
   <si>
@@ -1099,18 +1120,15 @@
     <t>74.39</t>
   </si>
   <si>
-    <t>818.29</t>
-  </si>
-  <si>
-    <t>2000.51</t>
+    <t>1041.46</t>
+  </si>
+  <si>
+    <t>1777.34</t>
   </si>
   <si>
     <t>HUBFAA072</t>
   </si>
   <si>
-    <t>陈世豪</t>
-  </si>
-  <si>
     <t>9100.00</t>
   </si>
   <si>
@@ -1123,10 +1141,10 @@
     <t>205.25</t>
   </si>
   <si>
-    <t>2463.00</t>
-  </si>
-  <si>
-    <t>5314.78</t>
+    <t>2873.50</t>
+  </si>
+  <si>
+    <t>4904.28</t>
   </si>
   <si>
     <t>D25</t>
@@ -1135,13 +1153,16 @@
     <t>HUBFAA080</t>
   </si>
   <si>
+    <t>谭伟</t>
+  </si>
+  <si>
     <t>2016/02/17</t>
   </si>
   <si>
-    <t>1545.00</t>
-  </si>
-  <si>
-    <t>4309.70</t>
+    <t>2008.50</t>
+  </si>
+  <si>
+    <t>3846.20</t>
   </si>
   <si>
     <t>库存</t>
@@ -1183,7 +1204,10 @@
     <t>733.02</t>
   </si>
   <si>
-    <t>0.00</t>
+    <t>1466.04</t>
+  </si>
+  <si>
+    <t>26311.74</t>
   </si>
   <si>
     <t>广州机房</t>
@@ -1210,7 +1234,7 @@
     <t>6800.00</t>
   </si>
   <si>
-    <t>5811.97</t>
+    <t>5811.96</t>
   </si>
   <si>
     <t>290.60</t>
@@ -1219,6 +1243,12 @@
     <t>153.37</t>
   </si>
   <si>
+    <t>306.74</t>
+  </si>
+  <si>
+    <t>5505.22</t>
+  </si>
+  <si>
     <t>HUBFAA090</t>
   </si>
   <si>
@@ -1237,6 +1267,12 @@
     <t>590.93</t>
   </si>
   <si>
+    <t>1181.86</t>
+  </si>
+  <si>
+    <t>21211.31</t>
+  </si>
+  <si>
     <t>HUBFAA091</t>
   </si>
   <si>
@@ -1256,6 +1292,12 @@
   </si>
   <si>
     <t>561.61</t>
+  </si>
+  <si>
+    <t>1123.22</t>
+  </si>
+  <si>
+    <t>20158.83</t>
   </si>
 </sst>
 </file>
@@ -1654,7 +1696,7 @@
         <v>18</v>
       </c>
       <c r="F3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
@@ -1698,7 +1740,7 @@
         <v>18</v>
       </c>
       <c r="F4">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
         <v>28</v>
@@ -1742,7 +1784,13 @@
         <v>18</v>
       </c>
       <c r="F5">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
       </c>
       <c r="I5" t="s">
         <v>21</v>
@@ -1765,13 +1813,10 @@
       <c r="O5" t="s">
         <v>26</v>
       </c>
-      <c r="P5" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -1783,13 +1828,13 @@
         <v>18</v>
       </c>
       <c r="F6">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
         <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
         <v>21</v>
@@ -1815,7 +1860,7 @@
     </row>
     <row r="7" spans="2:16">
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -1827,13 +1872,13 @@
         <v>18</v>
       </c>
       <c r="F7">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
         <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I7" t="s">
         <v>21</v>
@@ -1859,7 +1904,7 @@
     </row>
     <row r="8" spans="2:16">
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -1871,13 +1916,13 @@
         <v>18</v>
       </c>
       <c r="F8">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
         <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s">
         <v>21</v>
@@ -1903,7 +1948,7 @@
     </row>
     <row r="9" spans="2:16">
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1915,13 +1960,13 @@
         <v>18</v>
       </c>
       <c r="F9">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
         <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I9" t="s">
         <v>21</v>
@@ -1947,7 +1992,7 @@
     </row>
     <row r="10" spans="2:16">
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -1959,13 +2004,13 @@
         <v>18</v>
       </c>
       <c r="F10">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
         <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I10" t="s">
         <v>21</v>
@@ -1989,71 +2034,71 @@
         <v>26</v>
       </c>
       <c r="P10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="2:16">
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
       </c>
       <c r="F11">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
         <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
         <v>21</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="2:16">
       <c r="B12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
       </c>
       <c r="F12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="H12" t="s">
         <v>53</v>
@@ -2062,22 +2107,22 @@
         <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="2:16">
@@ -2085,19 +2130,19 @@
         <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
       </c>
       <c r="F13">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="H13" t="s">
         <v>55</v>
@@ -2106,22 +2151,22 @@
         <v>21</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="2:16">
@@ -2138,7 +2183,7 @@
         <v>18</v>
       </c>
       <c r="F14">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
         <v>59</v>
@@ -2182,7 +2227,7 @@
         <v>18</v>
       </c>
       <c r="F15">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
         <v>21</v>
@@ -2211,43 +2256,43 @@
         <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
       </c>
       <c r="F16">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s">
         <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I16" t="s">
         <v>21</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="2:16">
@@ -2264,10 +2309,10 @@
         <v>18</v>
       </c>
       <c r="F17">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H17" t="s">
         <v>75</v>
@@ -2308,10 +2353,10 @@
         <v>18</v>
       </c>
       <c r="F18">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="H18" t="s">
         <v>77</v>
@@ -2343,22 +2388,22 @@
         <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
         <v>18</v>
       </c>
       <c r="F19">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I19" t="s">
         <v>21</v>
@@ -2381,13 +2426,10 @@
       <c r="O19" t="s">
         <v>83</v>
       </c>
-      <c r="P19" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="20" spans="2:16">
       <c r="B20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
@@ -2399,7 +2441,13 @@
         <v>18</v>
       </c>
       <c r="F20">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" t="s">
+        <v>85</v>
       </c>
       <c r="I20" t="s">
         <v>21</v>
@@ -2422,10 +2470,13 @@
       <c r="O20" t="s">
         <v>26</v>
       </c>
+      <c r="P20" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="21" spans="2:16">
       <c r="B21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>
@@ -2437,7 +2488,13 @@
         <v>18</v>
       </c>
       <c r="F21">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="G21" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" t="s">
+        <v>88</v>
       </c>
       <c r="I21" t="s">
         <v>21</v>
@@ -2461,291 +2518,291 @@
         <v>26</v>
       </c>
       <c r="P21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="2:16">
       <c r="B22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
         <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E22" t="s">
         <v>18</v>
       </c>
       <c r="F22">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="H22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I22" t="s">
         <v>21</v>
       </c>
       <c r="J22" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K22" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L22" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M22" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N22" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O22" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="2:16">
       <c r="B23" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D23" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E23" t="s">
         <v>18</v>
       </c>
       <c r="F23">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G23" t="s">
         <v>59</v>
       </c>
       <c r="H23" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I23" t="s">
         <v>21</v>
       </c>
       <c r="J23" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K23" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L23" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M23" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N23" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O23" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="2:16">
       <c r="B24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E24" t="s">
         <v>18</v>
       </c>
       <c r="F24">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G24" t="s">
         <v>28</v>
       </c>
       <c r="H24" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I24" t="s">
         <v>21</v>
       </c>
       <c r="J24" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K24" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L24" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M24" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N24" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="2:16">
       <c r="B25" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E25" t="s">
         <v>18</v>
       </c>
       <c r="F25">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G25" t="s">
         <v>28</v>
       </c>
       <c r="H25" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I25" t="s">
         <v>21</v>
       </c>
       <c r="J25" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K25" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L25" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M25" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="2:16">
       <c r="B26" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E26" t="s">
         <v>18</v>
       </c>
       <c r="F26">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G26" t="s">
         <v>28</v>
       </c>
       <c r="H26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I26" t="s">
         <v>21</v>
       </c>
       <c r="J26" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K26" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L26" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M26" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N26" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="2:16">
       <c r="B27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D27" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E27" t="s">
         <v>18</v>
       </c>
       <c r="F27">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G27" t="s">
         <v>28</v>
       </c>
       <c r="H27" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I27" t="s">
         <v>21</v>
       </c>
       <c r="J27" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K27" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L27" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M27" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N27" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O27" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="2:16">
       <c r="B28" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D28" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E28" t="s">
         <v>18</v>
       </c>
       <c r="F28">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G28" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="H28" t="s">
         <v>53</v>
@@ -2754,42 +2811,42 @@
         <v>21</v>
       </c>
       <c r="J28" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K28" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L28" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M28" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N28" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O28" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="2:16">
       <c r="B29" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D29" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E29" t="s">
         <v>18</v>
       </c>
       <c r="F29">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G29" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="H29" t="s">
         <v>55</v>
@@ -2798,203 +2855,206 @@
         <v>21</v>
       </c>
       <c r="J29" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K29" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L29" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M29" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N29" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O29" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="2:16">
       <c r="B30" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C30" t="s">
         <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E30" t="s">
         <v>18</v>
       </c>
       <c r="F30">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G30" t="s">
         <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I30" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J30" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K30" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L30" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M30" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N30" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O30" t="s">
-        <v>139</v>
+        <v>141</v>
+      </c>
+      <c r="P30" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="2:16">
       <c r="B31" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C31" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D31" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E31" t="s">
         <v>18</v>
       </c>
       <c r="F31">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G31" t="s">
         <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I31" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J31" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K31" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L31" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M31" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="N31" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="O31" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="2:16">
       <c r="B32" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C32" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D32" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E32" t="s">
         <v>18</v>
       </c>
       <c r="F32">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G32" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="I32" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J32" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K32" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L32" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M32" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N32" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O32" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="2:16">
       <c r="B33" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C33" t="s">
         <v>57</v>
       </c>
       <c r="D33" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E33" t="s">
         <v>18</v>
       </c>
       <c r="F33">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G33" t="s">
         <v>28</v>
       </c>
       <c r="H33" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I33" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J33" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K33" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L33" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M33" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="N33" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="O33" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="2:16">
       <c r="B34" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C34" t="s">
         <v>16</v>
@@ -3006,39 +3066,39 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G34" t="s">
         <v>28</v>
       </c>
       <c r="H34" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I34" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J34" t="s">
         <v>22</v>
       </c>
       <c r="K34" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L34" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M34" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="N34" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O34" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="2:16">
       <c r="B35" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C35" t="s">
         <v>16</v>
@@ -3050,39 +3110,39 @@
         <v>18</v>
       </c>
       <c r="F35">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G35" t="s">
         <v>28</v>
       </c>
       <c r="H35" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I35" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J35" t="s">
         <v>22</v>
       </c>
       <c r="K35" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L35" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M35" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="N35" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O35" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="2:16">
       <c r="B36" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C36" t="s">
         <v>16</v>
@@ -3094,39 +3154,39 @@
         <v>18</v>
       </c>
       <c r="F36">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G36" t="s">
         <v>28</v>
       </c>
       <c r="H36" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I36" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J36" t="s">
         <v>22</v>
       </c>
       <c r="K36" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L36" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M36" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="N36" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O36" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="2:16">
       <c r="B37" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C37" t="s">
         <v>16</v>
@@ -3138,39 +3198,39 @@
         <v>18</v>
       </c>
       <c r="F37">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G37" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="H37" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I37" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J37" t="s">
         <v>22</v>
       </c>
       <c r="K37" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L37" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M37" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="N37" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O37" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="2:16">
       <c r="B38" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C38" t="s">
         <v>16</v>
@@ -3182,39 +3242,39 @@
         <v>18</v>
       </c>
       <c r="F38">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G38" t="s">
         <v>28</v>
       </c>
       <c r="H38" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I38" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J38" t="s">
         <v>22</v>
       </c>
       <c r="K38" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L38" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M38" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="N38" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O38" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="2:16">
       <c r="B39" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C39" t="s">
         <v>16</v>
@@ -3226,42 +3286,42 @@
         <v>18</v>
       </c>
       <c r="F39">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G39" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="H39" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I39" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J39" t="s">
         <v>22</v>
       </c>
       <c r="K39" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L39" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M39" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="N39" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O39" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="P39" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="2:16">
       <c r="B40" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C40" t="s">
         <v>16</v>
@@ -3273,42 +3333,36 @@
         <v>18</v>
       </c>
       <c r="F40">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>52</v>
-      </c>
-      <c r="H40" t="s">
-        <v>184</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J40" t="s">
         <v>22</v>
       </c>
       <c r="K40" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L40" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M40" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="N40" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O40" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="P40" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="2:16">
       <c r="B41" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C41" t="s">
         <v>16</v>
@@ -3320,39 +3374,39 @@
         <v>18</v>
       </c>
       <c r="F41">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G41" t="s">
         <v>59</v>
       </c>
       <c r="H41" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I41" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J41" t="s">
         <v>22</v>
       </c>
       <c r="K41" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L41" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M41" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="N41" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O41" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="2:16">
       <c r="B42" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C42" t="s">
         <v>16</v>
@@ -3364,39 +3418,39 @@
         <v>18</v>
       </c>
       <c r="F42">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G42" t="s">
         <v>28</v>
       </c>
       <c r="H42" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I42" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J42" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K42" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L42" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M42" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N42" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O42" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="2:16">
       <c r="B43" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C43" t="s">
         <v>16</v>
@@ -3408,39 +3462,39 @@
         <v>18</v>
       </c>
       <c r="F43">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G43" t="s">
         <v>28</v>
       </c>
       <c r="H43" t="s">
+        <v>202</v>
+      </c>
+      <c r="I43" t="s">
+        <v>194</v>
+      </c>
+      <c r="J43" t="s">
+        <v>195</v>
+      </c>
+      <c r="K43" t="s">
+        <v>196</v>
+      </c>
+      <c r="L43" t="s">
+        <v>197</v>
+      </c>
+      <c r="M43" t="s">
+        <v>198</v>
+      </c>
+      <c r="N43" t="s">
+        <v>199</v>
+      </c>
+      <c r="O43" t="s">
         <v>200</v>
-      </c>
-      <c r="I43" t="s">
-        <v>192</v>
-      </c>
-      <c r="J43" t="s">
-        <v>193</v>
-      </c>
-      <c r="K43" t="s">
-        <v>194</v>
-      </c>
-      <c r="L43" t="s">
-        <v>195</v>
-      </c>
-      <c r="M43" t="s">
-        <v>196</v>
-      </c>
-      <c r="N43" t="s">
-        <v>197</v>
-      </c>
-      <c r="O43" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="44" spans="2:16">
       <c r="B44" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C44" t="s">
         <v>16</v>
@@ -3452,39 +3506,39 @@
         <v>18</v>
       </c>
       <c r="F44">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G44" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="H44" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I44" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J44" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K44" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L44" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M44" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N44" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O44" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="2:16">
       <c r="B45" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C45" t="s">
         <v>16</v>
@@ -3496,39 +3550,39 @@
         <v>18</v>
       </c>
       <c r="F45">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G45" t="s">
         <v>28</v>
       </c>
       <c r="H45" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I45" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J45" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K45" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L45" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M45" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N45" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O45" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="46" spans="2:16">
       <c r="B46" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C46" t="s">
         <v>16</v>
@@ -3540,39 +3594,39 @@
         <v>18</v>
       </c>
       <c r="F46">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G46" t="s">
         <v>59</v>
       </c>
       <c r="H46" t="s">
+        <v>210</v>
+      </c>
+      <c r="I46" t="s">
+        <v>194</v>
+      </c>
+      <c r="J46" t="s">
+        <v>195</v>
+      </c>
+      <c r="K46" t="s">
+        <v>207</v>
+      </c>
+      <c r="L46" t="s">
+        <v>197</v>
+      </c>
+      <c r="M46" t="s">
+        <v>198</v>
+      </c>
+      <c r="N46" t="s">
+        <v>199</v>
+      </c>
+      <c r="O46" t="s">
         <v>208</v>
-      </c>
-      <c r="I46" t="s">
-        <v>192</v>
-      </c>
-      <c r="J46" t="s">
-        <v>193</v>
-      </c>
-      <c r="K46" t="s">
-        <v>205</v>
-      </c>
-      <c r="L46" t="s">
-        <v>195</v>
-      </c>
-      <c r="M46" t="s">
-        <v>196</v>
-      </c>
-      <c r="N46" t="s">
-        <v>197</v>
-      </c>
-      <c r="O46" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="47" spans="2:16">
       <c r="B47" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C47" t="s">
         <v>16</v>
@@ -3584,39 +3638,39 @@
         <v>18</v>
       </c>
       <c r="F47">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G47" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="H47" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I47" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J47" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K47" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L47" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M47" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N47" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O47" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="2:16">
       <c r="B48" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C48" t="s">
         <v>16</v>
@@ -3628,36 +3682,42 @@
         <v>18</v>
       </c>
       <c r="F48">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>59</v>
+      </c>
+      <c r="H48" t="s">
+        <v>214</v>
       </c>
       <c r="I48" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J48" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K48" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L48" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M48" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N48" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O48" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P48" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="2:16">
       <c r="B49" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C49" t="s">
         <v>16</v>
@@ -3669,42 +3729,42 @@
         <v>18</v>
       </c>
       <c r="F49">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G49" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="H49" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="I49" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J49" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K49" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L49" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M49" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N49" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O49" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P49" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="2:16">
       <c r="B50" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C50" t="s">
         <v>16</v>
@@ -3716,39 +3776,39 @@
         <v>18</v>
       </c>
       <c r="F50">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G50" t="s">
         <v>59</v>
       </c>
       <c r="H50" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I50" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J50" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K50" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L50" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M50" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N50" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O50" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="51" spans="2:16">
       <c r="B51" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C51" t="s">
         <v>16</v>
@@ -3760,51 +3820,51 @@
         <v>18</v>
       </c>
       <c r="F51">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G51" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="H51" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I51" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J51" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K51" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L51" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M51" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N51" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O51" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52" spans="2:16">
       <c r="B52" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C52" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D52" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E52" t="s">
         <v>18</v>
       </c>
       <c r="F52">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G52" t="s">
         <v>59</v>
@@ -3813,250 +3873,250 @@
         <v>60</v>
       </c>
       <c r="I52" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J52" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K52" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L52" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M52" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="N52" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="O52" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="53" spans="2:16">
       <c r="B53" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C53" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D53" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E53" t="s">
         <v>18</v>
       </c>
       <c r="F53">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G53" t="s">
         <v>19</v>
       </c>
       <c r="H53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I53" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J53" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K53" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L53" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M53" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="N53" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="O53" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="54" spans="2:16">
       <c r="B54" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C54" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D54" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E54" t="s">
         <v>18</v>
       </c>
       <c r="F54">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G54" t="s">
         <v>28</v>
       </c>
       <c r="H54" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I54" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J54" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K54" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L54" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M54" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="N54" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="O54" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="55" spans="2:16">
       <c r="B55" t="s">
+        <v>232</v>
+      </c>
+      <c r="C55" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" t="s">
+        <v>100</v>
+      </c>
+      <c r="E55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55">
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>59</v>
+      </c>
+      <c r="H55" t="s">
+        <v>88</v>
+      </c>
+      <c r="I55" t="s">
+        <v>194</v>
+      </c>
+      <c r="J55" t="s">
+        <v>224</v>
+      </c>
+      <c r="K55" t="s">
+        <v>225</v>
+      </c>
+      <c r="L55" t="s">
+        <v>226</v>
+      </c>
+      <c r="M55" t="s">
+        <v>227</v>
+      </c>
+      <c r="N55" t="s">
+        <v>228</v>
+      </c>
+      <c r="O55" t="s">
         <v>229</v>
-      </c>
-      <c r="C55" t="s">
-        <v>97</v>
-      </c>
-      <c r="D55" t="s">
-        <v>98</v>
-      </c>
-      <c r="E55" t="s">
-        <v>18</v>
-      </c>
-      <c r="F55">
-        <v>19</v>
-      </c>
-      <c r="G55" t="s">
-        <v>19</v>
-      </c>
-      <c r="H55" t="s">
-        <v>230</v>
-      </c>
-      <c r="I55" t="s">
-        <v>192</v>
-      </c>
-      <c r="J55" t="s">
-        <v>221</v>
-      </c>
-      <c r="K55" t="s">
-        <v>222</v>
-      </c>
-      <c r="L55" t="s">
-        <v>223</v>
-      </c>
-      <c r="M55" t="s">
-        <v>224</v>
-      </c>
-      <c r="N55" t="s">
-        <v>225</v>
-      </c>
-      <c r="O55" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="56" spans="2:16">
       <c r="B56" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C56" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D56" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E56" t="s">
         <v>18</v>
       </c>
       <c r="F56">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G56" t="s">
         <v>28</v>
       </c>
       <c r="H56" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="I56" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J56" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K56" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L56" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M56" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="N56" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="O56" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="2:16">
       <c r="B57" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C57" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D57" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E57" t="s">
         <v>18</v>
       </c>
       <c r="F57">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G57" t="s">
         <v>28</v>
       </c>
       <c r="H57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I57" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="J57" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="K57" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L57" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M57" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="N57" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="O57" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="58" spans="2:16">
       <c r="B58" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C58" t="s">
         <v>57</v>
@@ -4068,300 +4128,300 @@
         <v>18</v>
       </c>
       <c r="F58">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G58" t="s">
         <v>28</v>
       </c>
       <c r="H58" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I58" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="J58" t="s">
         <v>68</v>
       </c>
       <c r="K58" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L58" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="M58" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="N58" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="O58" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="59" spans="2:16">
       <c r="B59" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C59" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D59" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E59" t="s">
         <v>18</v>
       </c>
       <c r="F59">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G59" t="s">
         <v>28</v>
       </c>
       <c r="H59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I59" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="J59" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K59" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L59" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M59" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="N59" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="O59" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="60" spans="2:16">
       <c r="B60" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C60" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D60" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E60" t="s">
         <v>18</v>
       </c>
       <c r="F60">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G60" t="s">
         <v>19</v>
       </c>
       <c r="H60" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="I60" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="J60" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K60" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L60" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M60" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="N60" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="O60" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="61" spans="2:16">
       <c r="B61" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C61" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D61" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E61" t="s">
         <v>18</v>
       </c>
       <c r="F61">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G61" t="s">
         <v>28</v>
       </c>
       <c r="H61" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I61" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="J61" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K61" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L61" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M61" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="N61" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="O61" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="62" spans="2:16">
       <c r="B62" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C62" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D62" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E62" t="s">
         <v>18</v>
       </c>
       <c r="F62">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G62" t="s">
         <v>28</v>
       </c>
       <c r="H62" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I62" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="J62" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K62" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L62" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M62" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="N62" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O62" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="63" spans="2:16">
       <c r="B63" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C63" t="s">
         <v>57</v>
       </c>
       <c r="D63" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E63" t="s">
         <v>18</v>
       </c>
       <c r="F63">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I63" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="J63" t="s">
         <v>68</v>
       </c>
       <c r="K63" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L63" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="M63" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="N63" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="O63" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="P63" t="s">
-        <v>291</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="2:16">
       <c r="B64" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C64" t="s">
         <v>57</v>
       </c>
       <c r="D64" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E64" t="s">
         <v>18</v>
       </c>
       <c r="F64">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G64" t="s">
         <v>59</v>
       </c>
       <c r="H64" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I64" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J64" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K64" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L64" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M64" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="N64" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="O64" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="65" spans="2:16">
       <c r="B65" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C65" t="s">
         <v>16</v>
@@ -4373,36 +4433,36 @@
         <v>18</v>
       </c>
       <c r="F65">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I65" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="J65" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K65" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L65" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M65" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N65" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="O65" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P65" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="66" spans="2:16">
       <c r="B66" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C66" t="s">
         <v>16</v>
@@ -4414,39 +4474,39 @@
         <v>18</v>
       </c>
       <c r="F66">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G66" t="s">
         <v>28</v>
       </c>
       <c r="H66" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I66" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="J66" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K66" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L66" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M66" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N66" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="O66" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="67" spans="2:16">
       <c r="B67" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C67" t="s">
         <v>16</v>
@@ -4458,33 +4518,39 @@
         <v>18</v>
       </c>
       <c r="F67">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="G67" t="s">
+        <v>31</v>
+      </c>
+      <c r="H67" t="s">
+        <v>315</v>
       </c>
       <c r="I67" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="J67" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K67" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L67" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M67" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N67" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="O67" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="68" spans="2:16">
       <c r="B68" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C68" t="s">
         <v>16</v>
@@ -4496,39 +4562,39 @@
         <v>18</v>
       </c>
       <c r="F68">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G68" t="s">
         <v>28</v>
       </c>
       <c r="H68" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I68" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="J68" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K68" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L68" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M68" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N68" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="O68" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="69" spans="2:16">
       <c r="B69" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C69" t="s">
         <v>57</v>
@@ -4540,39 +4606,39 @@
         <v>18</v>
       </c>
       <c r="F69">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G69" t="s">
         <v>28</v>
       </c>
       <c r="H69" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="I69" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="J69" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="K69" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L69" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="M69" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="N69" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="O69" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="70" spans="2:16">
       <c r="B70" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C70" t="s">
         <v>16</v>
@@ -4584,39 +4650,39 @@
         <v>18</v>
       </c>
       <c r="F70">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G70" t="s">
         <v>28</v>
       </c>
       <c r="H70" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="I70" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="J70" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K70" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L70" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M70" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N70" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="O70" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
     </row>
     <row r="71" spans="2:16">
       <c r="B71" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C71" t="s">
         <v>16</v>
@@ -4628,39 +4694,39 @@
         <v>18</v>
       </c>
       <c r="F71">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G71" t="s">
         <v>28</v>
       </c>
       <c r="H71" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="I71" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="J71" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K71" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L71" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M71" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N71" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="O71" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
     </row>
     <row r="72" spans="2:16">
       <c r="B72" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C72" t="s">
         <v>16</v>
@@ -4672,42 +4738,42 @@
         <v>18</v>
       </c>
       <c r="F72">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G72" t="s">
         <v>28</v>
       </c>
       <c r="H72" t="s">
-        <v>33</v>
+        <v>332</v>
       </c>
       <c r="I72" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="J72" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K72" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L72" t="s">
+        <v>333</v>
+      </c>
+      <c r="M72" t="s">
+        <v>308</v>
+      </c>
+      <c r="N72" t="s">
         <v>327</v>
       </c>
-      <c r="M72" t="s">
-        <v>306</v>
-      </c>
-      <c r="N72" t="s">
-        <v>307</v>
-      </c>
       <c r="O72" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="P72" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="73" spans="2:16">
       <c r="B73" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C73" t="s">
         <v>16</v>
@@ -4719,39 +4785,39 @@
         <v>18</v>
       </c>
       <c r="F73">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G73" t="s">
         <v>19</v>
       </c>
       <c r="H73" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="I73" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="J73" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K73" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L73" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M73" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N73" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="O73" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
     </row>
     <row r="74" spans="2:16">
       <c r="B74" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C74" t="s">
         <v>16</v>
@@ -4763,42 +4829,42 @@
         <v>18</v>
       </c>
       <c r="F74">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G74" t="s">
         <v>28</v>
       </c>
       <c r="H74" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I74" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="J74" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K74" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L74" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M74" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N74" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="O74" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="P74" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="75" spans="2:16">
       <c r="B75" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C75" t="s">
         <v>16</v>
@@ -4810,77 +4876,83 @@
         <v>18</v>
       </c>
       <c r="F75">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="G75" t="s">
+        <v>31</v>
+      </c>
+      <c r="H75" t="s">
+        <v>340</v>
       </c>
       <c r="I75" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="J75" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K75" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L75" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M75" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N75" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="O75" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="76" spans="2:16">
       <c r="B76" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C76" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D76" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="E76" t="s">
         <v>18</v>
       </c>
       <c r="F76">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G76" t="s">
         <v>19</v>
       </c>
       <c r="H76" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="I76" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="J76" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="K76" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="L76" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="M76" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="N76" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="O76" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="77" spans="2:16">
       <c r="B77" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C77" t="s">
         <v>16</v>
@@ -4892,39 +4964,42 @@
         <v>18</v>
       </c>
       <c r="F77">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G77" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H77" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="I77" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="J77" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K77" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L77" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M77" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N77" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="O77" t="s">
-        <v>333</v>
+        <v>328</v>
+      </c>
+      <c r="P77" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="78" spans="2:16">
       <c r="B78" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C78" t="s">
         <v>16</v>
@@ -4936,33 +5011,39 @@
         <v>18</v>
       </c>
       <c r="F78">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="G78" t="s">
+        <v>31</v>
+      </c>
+      <c r="H78" t="s">
+        <v>356</v>
       </c>
       <c r="I78" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="J78" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K78" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L78" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M78" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N78" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="O78" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="79" spans="2:16">
       <c r="B79" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="C79" t="s">
         <v>16</v>
@@ -4974,42 +5055,42 @@
         <v>18</v>
       </c>
       <c r="F79">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G79" t="s">
         <v>28</v>
       </c>
       <c r="H79" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="I79" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="J79" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K79" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L79" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M79" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N79" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="O79" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="P79" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
     </row>
     <row r="80" spans="2:16">
       <c r="B80" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="C80" t="s">
         <v>16</v>
@@ -5021,80 +5102,83 @@
         <v>18</v>
       </c>
       <c r="F80">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="G80" t="s">
+        <v>28</v>
+      </c>
+      <c r="H80" t="s">
+        <v>34</v>
       </c>
       <c r="I80" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="J80" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K80" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L80" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M80" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N80" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="O80" t="s">
-        <v>333</v>
-      </c>
-      <c r="P80" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
     </row>
     <row r="81" spans="2:16">
       <c r="B81" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E81" t="s">
         <v>18</v>
       </c>
       <c r="F81">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G81" t="s">
         <v>19</v>
       </c>
       <c r="H81" t="s">
-        <v>230</v>
+        <v>362</v>
       </c>
       <c r="I81" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="J81" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="K81" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="L81" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="M81" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="N81" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="O81" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
     </row>
     <row r="82" spans="2:16">
       <c r="B82" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="C82" t="s">
         <v>16</v>
@@ -5106,42 +5190,42 @@
         <v>18</v>
       </c>
       <c r="F82">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G82" t="s">
         <v>28</v>
       </c>
       <c r="H82" t="s">
-        <v>364</v>
+        <v>206</v>
       </c>
       <c r="I82" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="J82" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="K82" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="L82" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="M82" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="N82" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="O82" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="P82" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="83" spans="2:16">
       <c r="B83" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C83" t="s">
         <v>16</v>
@@ -5153,36 +5237,42 @@
         <v>18</v>
       </c>
       <c r="F83">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="G83" t="s">
+        <v>59</v>
+      </c>
+      <c r="H83" t="s">
+        <v>379</v>
       </c>
       <c r="I83" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="J83" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K83" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L83" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M83" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N83" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="O83" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="P83" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="84" spans="2:16">
       <c r="B84" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="C84" t="s">
         <v>16</v>
@@ -5194,42 +5284,42 @@
         <v>18</v>
       </c>
       <c r="F84">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G84" t="s">
         <v>19</v>
       </c>
       <c r="H84" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="I84" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="J84" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K84" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L84" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M84" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N84" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="O84" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="P84" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
     <row r="85" spans="2:16">
       <c r="B85" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="C85" t="s">
         <v>16</v>
@@ -5241,413 +5331,413 @@
         <v>18</v>
       </c>
       <c r="F85">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G85" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="H85" t="s">
+        <v>387</v>
+      </c>
+      <c r="I85" t="s">
         <v>380</v>
       </c>
-      <c r="I85" t="s">
-        <v>373</v>
-      </c>
       <c r="J85" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K85" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L85" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M85" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N85" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="O85" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="P85" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="86" spans="2:16">
       <c r="B86" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="C86" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D86" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="E86" t="s">
         <v>18</v>
       </c>
       <c r="F86">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G86" t="s">
         <v>28</v>
       </c>
       <c r="H86" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I86" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="J86" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="K86" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="L86" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="M86" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="N86" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="O86" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="P86" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
     </row>
     <row r="87" spans="2:16">
       <c r="B87" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="C87" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D87" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="E87" t="s">
         <v>18</v>
       </c>
       <c r="F87">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G87" t="s">
         <v>28</v>
       </c>
       <c r="H87" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I87" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="J87" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="K87" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="L87" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="M87" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="N87" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="O87" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="P87" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
     </row>
     <row r="88" spans="2:16">
       <c r="B88" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="C88" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D88" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="E88" t="s">
         <v>18</v>
       </c>
       <c r="F88">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G88" t="s">
         <v>28</v>
       </c>
       <c r="H88" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I88" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="J88" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="K88" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="L88" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="M88" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="N88" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="O88" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="P88" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
     </row>
     <row r="89" spans="2:16">
       <c r="B89" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="C89" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D89" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="E89" t="s">
         <v>18</v>
       </c>
       <c r="F89">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G89" t="s">
         <v>28</v>
       </c>
       <c r="H89" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I89" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="J89" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="K89" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="L89" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="M89" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="N89" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="O89" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="P89" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
     </row>
     <row r="90" spans="2:16">
       <c r="B90" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="C90" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D90" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="E90" t="s">
         <v>18</v>
       </c>
       <c r="F90">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G90" t="s">
         <v>28</v>
       </c>
       <c r="H90" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I90" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="J90" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="K90" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="L90" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="M90" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="N90" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="O90" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="P90" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
     </row>
     <row r="91" spans="2:16">
       <c r="B91" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="C91" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D91" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="E91" t="s">
         <v>18</v>
       </c>
       <c r="F91">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G91" t="s">
         <v>28</v>
       </c>
       <c r="H91" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I91" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="J91" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="K91" t="s">
+        <v>406</v>
+      </c>
+      <c r="L91" t="s">
+        <v>407</v>
+      </c>
+      <c r="M91" t="s">
+        <v>408</v>
+      </c>
+      <c r="N91" t="s">
+        <v>409</v>
+      </c>
+      <c r="O91" t="s">
+        <v>410</v>
+      </c>
+      <c r="P91" t="s">
         <v>398</v>
-      </c>
-      <c r="L91" t="s">
-        <v>399</v>
-      </c>
-      <c r="M91" t="s">
-        <v>400</v>
-      </c>
-      <c r="N91" t="s">
-        <v>389</v>
-      </c>
-      <c r="O91" t="s">
-        <v>398</v>
-      </c>
-      <c r="P91" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="92" spans="2:16">
       <c r="B92" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="C92" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D92" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="E92" t="s">
         <v>18</v>
       </c>
       <c r="F92">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G92" t="s">
         <v>28</v>
       </c>
       <c r="H92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I92" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="J92" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="K92" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="L92" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="M92" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="N92" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="O92" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="P92" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
     </row>
     <row r="93" spans="2:16">
       <c r="B93" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="C93" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="D93" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="E93" t="s">
         <v>18</v>
       </c>
       <c r="F93">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G93" t="s">
         <v>28</v>
       </c>
       <c r="H93" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I93" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="J93" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="K93" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="L93" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="M93" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="N93" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="O93" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="P93" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
